--- a/DesignDocument/(5Team_Analysis_001) Architecture driver specification.xlsx
+++ b/DesignDocument/(5Team_Analysis_001) Architecture driver specification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocuments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24000" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="12" activeTab="17"/>
+    <workbookView xWindow="24960" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="18" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="636">
   <si>
     <t>FR-202</t>
   </si>
@@ -2601,6 +2601,30 @@
   </si>
   <si>
     <t>FR-125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QA-18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usability</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User shall be comfortable using parking lot.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3864,231 +3888,6 @@
     <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="10" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
@@ -4104,6 +3903,231 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="51" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="52" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="9" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="10" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4890,56 +4914,56 @@
       <c r="A4" s="57"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="98" t="s">
         <v>559</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
-      <c r="H5" s="93"/>
+      <c r="B5" s="99"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="99"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="99"/>
+      <c r="H5" s="99"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="93"/>
-      <c r="G6" s="93"/>
-      <c r="H6" s="93"/>
+      <c r="A6" s="99"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="99"/>
+      <c r="H6" s="99"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="93"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="93"/>
-      <c r="G7" s="93"/>
-      <c r="H7" s="93"/>
+      <c r="A7" s="99"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="99"/>
+      <c r="H7" s="99"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
+      <c r="G8" s="99"/>
+      <c r="H8" s="99"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
-      <c r="H9" s="93"/>
+      <c r="A9" s="99"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="99"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
@@ -4948,16 +4972,16 @@
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="100" t="s">
         <v>560</v>
       </c>
-      <c r="B13" s="94"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="57"/>
@@ -4990,28 +5014,28 @@
       <c r="A23" s="57"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="101" t="s">
         <v>561</v>
       </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="95"/>
-      <c r="H30" s="95"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
+      <c r="H30" s="101"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="101" t="s">
         <v>551</v>
       </c>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="95"/>
-      <c r="H31" s="95"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
       <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -5020,54 +5044,54 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="H33" s="103"/>
     </row>
     <row r="34" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="96"/>
-      <c r="B34" s="97"/>
-      <c r="C34" s="97"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="97"/>
-      <c r="G34" s="97"/>
-      <c r="H34" s="97"/>
+      <c r="A34" s="102"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
     </row>
     <row r="35" spans="1:8" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="96"/>
-      <c r="B35" s="97"/>
-      <c r="C35" s="97"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="97"/>
-      <c r="F35" s="97"/>
-      <c r="G35" s="97"/>
-      <c r="H35" s="97"/>
+      <c r="A35" s="102"/>
+      <c r="B35" s="103"/>
+      <c r="C35" s="103"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="103"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="103"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
+      <c r="A36" s="102"/>
+      <c r="B36" s="103"/>
+      <c r="C36" s="103"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="103"/>
     </row>
     <row r="37" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="96"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
+      <c r="A37" s="102"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="G40" s="63"/>
@@ -5188,22 +5212,22 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="160"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="162"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="160"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="155" t="s">
@@ -5212,22 +5236,22 @@
       <c r="C6" s="156"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="157" t="s">
+      <c r="B7" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="158"/>
+      <c r="C7" s="160"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="162"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="157" t="s">
+      <c r="B9" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="158"/>
+      <c r="C9" s="160"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" s="155" t="s">
@@ -5290,28 +5314,28 @@
       <c r="C19" s="156"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="157" t="s">
+      <c r="B20" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="158"/>
+      <c r="C20" s="160"/>
     </row>
     <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="159" t="s">
+      <c r="B21" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="160"/>
+      <c r="C21" s="162"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="157" t="s">
+      <c r="B22" s="159" t="s">
         <v>424</v>
       </c>
-      <c r="C22" s="158"/>
+      <c r="C22" s="160"/>
     </row>
     <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="157" t="s">
         <v>425</v>
       </c>
-      <c r="C23" s="164"/>
+      <c r="C23" s="158"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5323,22 +5347,22 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="152"/>
+      <c r="C26" s="164"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="169" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="150"/>
+      <c r="C27" s="170"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="157" t="s">
+      <c r="B28" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="158"/>
+      <c r="C28" s="160"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="155" t="s">
@@ -5347,22 +5371,22 @@
       <c r="C29" s="156"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="157" t="s">
+      <c r="B30" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="158"/>
+      <c r="C30" s="160"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="159" t="s">
+      <c r="B31" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="160"/>
+      <c r="C31" s="162"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="157" t="s">
+      <c r="B32" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C32" s="158"/>
+      <c r="C32" s="160"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" s="155" t="s">
@@ -5371,34 +5395,34 @@
       <c r="C33" s="156"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="153" t="s">
+      <c r="B34" s="165" t="s">
         <v>428</v>
       </c>
-      <c r="C34" s="154"/>
+      <c r="C34" s="166"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="153" t="s">
+      <c r="B35" s="165" t="s">
         <v>429</v>
       </c>
-      <c r="C35" s="154"/>
+      <c r="C35" s="166"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="165" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="154"/>
+      <c r="C36" s="166"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="165" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="154"/>
+      <c r="C37" s="166"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="153" t="s">
+      <c r="B38" s="165" t="s">
         <v>432</v>
       </c>
-      <c r="C38" s="154"/>
+      <c r="C38" s="166"/>
     </row>
     <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="155" t="s">
@@ -5407,46 +5431,19 @@
       <c r="C39" s="156"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="152"/>
+      <c r="C40" s="164"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="149" t="s">
+      <c r="B41" s="169" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="150"/>
+      <c r="C41" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -5457,6 +5454,33 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5490,22 +5514,22 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="159" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="158"/>
+      <c r="C3" s="160"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="159" t="s">
+      <c r="B4" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="160"/>
+      <c r="C4" s="162"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="157" t="s">
+      <c r="B5" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="158"/>
+      <c r="C5" s="160"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="155" t="s">
@@ -5520,22 +5544,22 @@
       <c r="C7" s="156"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="157" t="s">
+      <c r="B8" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="158"/>
+      <c r="C8" s="160"/>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="161" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="160"/>
+      <c r="C9" s="162"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="157" t="s">
+      <c r="B10" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="158"/>
+      <c r="C10" s="160"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="155" t="s">
@@ -5604,16 +5628,16 @@
       <c r="C21" s="156"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="161" t="s">
         <v>368</v>
       </c>
-      <c r="C22" s="160"/>
+      <c r="C22" s="162"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="157" t="s">
+      <c r="B23" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="158"/>
+      <c r="C23" s="160"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="155" t="s">
@@ -5622,10 +5646,10 @@
       <c r="C24" s="156"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="161" t="s">
+      <c r="B25" s="167" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="162"/>
+      <c r="C25" s="168"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="155" t="s">
@@ -5640,10 +5664,10 @@
       <c r="C27" s="156"/>
     </row>
     <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="163" t="s">
+      <c r="B28" s="157" t="s">
         <v>357</v>
       </c>
-      <c r="C28" s="164"/>
+      <c r="C28" s="158"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5655,22 +5679,22 @@
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="151" t="s">
+      <c r="B31" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="152"/>
+      <c r="C31" s="164"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="149" t="s">
+      <c r="B32" s="169" t="s">
         <v>436</v>
       </c>
-      <c r="C32" s="150"/>
+      <c r="C32" s="170"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="157" t="s">
+      <c r="B33" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="158"/>
+      <c r="C33" s="160"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="155" t="s">
@@ -5679,22 +5703,22 @@
       <c r="C34" s="156"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="157" t="s">
+      <c r="B35" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="158"/>
+      <c r="C35" s="160"/>
     </row>
     <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="159" t="s">
+      <c r="B36" s="161" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="160"/>
+      <c r="C36" s="162"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="157" t="s">
+      <c r="B37" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C37" s="158"/>
+      <c r="C37" s="160"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="155" t="s">
@@ -5709,16 +5733,16 @@
       <c r="C39" s="156"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="161" t="s">
+      <c r="B40" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="162"/>
+      <c r="C40" s="168"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="163" t="s">
+      <c r="B41" s="157" t="s">
         <v>441</v>
       </c>
-      <c r="C41" s="164"/>
+      <c r="C41" s="158"/>
     </row>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5730,22 +5754,22 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="151" t="s">
+      <c r="B44" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="152"/>
+      <c r="C44" s="164"/>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="149" t="s">
+      <c r="B45" s="169" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="150"/>
+      <c r="C45" s="170"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="157" t="s">
+      <c r="B46" s="159" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="158"/>
+      <c r="C46" s="160"/>
     </row>
     <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B47" s="155" t="s">
@@ -5754,22 +5778,22 @@
       <c r="C47" s="156"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="158"/>
+      <c r="C48" s="160"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="159" t="s">
+      <c r="B49" s="161" t="s">
         <v>437</v>
       </c>
-      <c r="C49" s="160"/>
+      <c r="C49" s="162"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="157" t="s">
+      <c r="B50" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="158"/>
+      <c r="C50" s="160"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="155" t="s">
@@ -5784,46 +5808,46 @@
       <c r="C52" s="156"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="153" t="s">
+      <c r="B53" s="165" t="s">
         <v>358</v>
       </c>
-      <c r="C53" s="154"/>
+      <c r="C53" s="166"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="153" t="s">
+      <c r="B54" s="165" t="s">
         <v>360</v>
       </c>
-      <c r="C54" s="154"/>
+      <c r="C54" s="166"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="153" t="s">
+      <c r="B55" s="165" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="154"/>
+      <c r="C55" s="166"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="153" t="s">
+      <c r="B56" s="165" t="s">
         <v>362</v>
       </c>
-      <c r="C56" s="154"/>
+      <c r="C56" s="166"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="153" t="s">
+      <c r="B57" s="165" t="s">
         <v>363</v>
       </c>
-      <c r="C57" s="154"/>
+      <c r="C57" s="166"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="153" t="s">
+      <c r="B58" s="165" t="s">
         <v>372</v>
       </c>
-      <c r="C58" s="154"/>
+      <c r="C58" s="166"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="153" t="s">
+      <c r="B59" s="165" t="s">
         <v>373</v>
       </c>
-      <c r="C59" s="154"/>
+      <c r="C59" s="166"/>
     </row>
     <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B60" s="155" t="s">
@@ -5838,22 +5862,22 @@
       <c r="C61" s="156"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="151" t="s">
+      <c r="B62" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="152"/>
+      <c r="C62" s="164"/>
     </row>
     <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="165" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="154"/>
+      <c r="C63" s="166"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B64" s="161" t="s">
+      <c r="B64" s="167" t="s">
         <v>369</v>
       </c>
-      <c r="C64" s="162"/>
+      <c r="C64" s="168"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B65" s="155" t="s">
@@ -5862,53 +5886,19 @@
       <c r="C65" s="156"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="163" t="s">
+      <c r="B66" s="157" t="s">
         <v>371</v>
       </c>
-      <c r="C66" s="164"/>
+      <c r="C66" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -5923,12 +5913,46 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5938,13 +5962,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -5987,7 +6011,9 @@
       <c r="D2" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
@@ -6002,7 +6028,9 @@
       <c r="D3" s="15" t="s">
         <v>540</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -6017,7 +6045,9 @@
       <c r="D4" s="15" t="s">
         <v>541</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
@@ -6032,7 +6062,9 @@
       <c r="D5" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
@@ -6047,7 +6079,9 @@
       <c r="D6" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
@@ -6062,7 +6096,9 @@
       <c r="D7" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
@@ -6077,7 +6113,9 @@
       <c r="D8" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
@@ -6092,7 +6130,9 @@
       <c r="D9" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
@@ -6107,7 +6147,9 @@
       <c r="D10" s="15" t="s">
         <v>545</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
@@ -6122,7 +6164,9 @@
       <c r="D11" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="E11" s="4"/>
+      <c r="E11" s="4" t="s">
+        <v>635</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
@@ -6137,7 +6181,9 @@
       <c r="D12" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
@@ -6152,7 +6198,9 @@
       <c r="D13" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
@@ -6167,7 +6215,9 @@
       <c r="D14" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
@@ -6182,7 +6232,9 @@
       <c r="D15" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="E15" s="4"/>
+      <c r="E15" s="4" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
@@ -6197,7 +6249,9 @@
       <c r="D16" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="4" t="s">
+        <v>633</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
@@ -6212,7 +6266,9 @@
       <c r="D17" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
@@ -6227,7 +6283,26 @@
       <c r="D18" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>631</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>633</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
@@ -6583,7 +6658,7 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="165" t="s">
+      <c r="B47" s="171" t="s">
         <v>246</v>
       </c>
       <c r="C47" s="38" t="s">
@@ -6591,7 +6666,7 @@
       </c>
     </row>
     <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="166"/>
+      <c r="B48" s="172"/>
       <c r="C48" s="37" t="s">
         <v>261</v>
       </c>
@@ -7312,213 +7387,213 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BN8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="K14" sqref="K14:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="8" width="2.875" style="168" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.875" style="168" customWidth="1"/>
-    <col min="10" max="65" width="2.875" style="168" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="2.875" style="93" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.875" style="93" customWidth="1"/>
+    <col min="10" max="65" width="2.875" style="93" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="3.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:66" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="169"/>
-      <c r="B1" s="167" t="s">
+      <c r="A1" s="94"/>
+      <c r="B1" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="167" t="s">
+      <c r="C1" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="167" t="s">
+      <c r="D1" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="167" t="s">
+      <c r="E1" s="92" t="s">
         <v>505</v>
       </c>
-      <c r="F1" s="167" t="s">
+      <c r="F1" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="167" t="s">
+      <c r="G1" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="92" t="s">
         <v>508</v>
       </c>
-      <c r="I1" s="167" t="s">
+      <c r="I1" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="J1" s="167" t="s">
+      <c r="J1" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="K1" s="167" t="s">
+      <c r="K1" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="L1" s="167" t="s">
+      <c r="L1" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="M1" s="167" t="s">
+      <c r="M1" s="92" t="s">
         <v>513</v>
       </c>
-      <c r="N1" s="167" t="s">
+      <c r="N1" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="O1" s="167" t="s">
+      <c r="O1" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="P1" s="167" t="s">
+      <c r="P1" s="92" t="s">
         <v>516</v>
       </c>
-      <c r="Q1" s="167" t="s">
+      <c r="Q1" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="R1" s="167" t="s">
+      <c r="R1" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="S1" s="167" t="s">
+      <c r="S1" s="92" t="s">
         <v>519</v>
       </c>
-      <c r="T1" s="167" t="s">
+      <c r="T1" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="U1" s="167" t="s">
+      <c r="U1" s="92" t="s">
         <v>521</v>
       </c>
-      <c r="V1" s="167" t="s">
+      <c r="V1" s="92" t="s">
         <v>522</v>
       </c>
-      <c r="W1" s="167" t="s">
+      <c r="W1" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="X1" s="167" t="s">
+      <c r="X1" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="Y1" s="167" t="s">
+      <c r="Y1" s="92" t="s">
         <v>525</v>
       </c>
-      <c r="Z1" s="167" t="s">
+      <c r="Z1" s="92" t="s">
         <v>629</v>
       </c>
-      <c r="AA1" s="167" t="s">
+      <c r="AA1" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="AB1" s="167" t="s">
+      <c r="AB1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="AC1" s="167" t="s">
+      <c r="AC1" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="AD1" s="167" t="s">
+      <c r="AD1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="AE1" s="167" t="s">
+      <c r="AE1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="167" t="s">
+      <c r="AF1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="167" t="s">
+      <c r="AG1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="167" t="s">
+      <c r="AH1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="AI1" s="167" t="s">
+      <c r="AI1" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="AJ1" s="167" t="s">
+      <c r="AJ1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AK1" s="167" t="s">
+      <c r="AK1" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="167" t="s">
+      <c r="AL1" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="AM1" s="167" t="s">
+      <c r="AM1" s="92" t="s">
         <v>11</v>
       </c>
-      <c r="AN1" s="167" t="s">
+      <c r="AN1" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="AO1" s="167" t="s">
+      <c r="AO1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="167" t="s">
+      <c r="AP1" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="167" t="s">
+      <c r="AQ1" s="92" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="167" t="s">
+      <c r="AR1" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="167" t="s">
+      <c r="AS1" s="92" t="s">
         <v>38</v>
       </c>
-      <c r="AT1" s="167" t="s">
+      <c r="AT1" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="AU1" s="167" t="s">
+      <c r="AU1" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="AV1" s="167" t="s">
+      <c r="AV1" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="AW1" s="167" t="s">
+      <c r="AW1" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="AX1" s="167" t="s">
+      <c r="AX1" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="AY1" s="167" t="s">
+      <c r="AY1" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="AZ1" s="167" t="s">
+      <c r="AZ1" s="92" t="s">
         <v>45</v>
       </c>
-      <c r="BA1" s="167" t="s">
+      <c r="BA1" s="92" t="s">
         <v>46</v>
       </c>
-      <c r="BB1" s="167" t="s">
+      <c r="BB1" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="BC1" s="167" t="s">
+      <c r="BC1" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="BD1" s="167" t="s">
+      <c r="BD1" s="92" t="s">
         <v>315</v>
       </c>
-      <c r="BE1" s="167" t="s">
+      <c r="BE1" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="BF1" s="167" t="s">
+      <c r="BF1" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="BG1" s="167" t="s">
+      <c r="BG1" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="BH1" s="167" t="s">
+      <c r="BH1" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="BI1" s="167" t="s">
+      <c r="BI1" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="167" t="s">
+      <c r="BJ1" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="BK1" s="167" t="s">
+      <c r="BK1" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="BL1" s="167" t="s">
+      <c r="BL1" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="BM1" s="167" t="s">
+      <c r="BM1" s="92" t="s">
         <v>343</v>
       </c>
     </row>
@@ -7526,196 +7601,196 @@
       <c r="A2" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="95" t="s">
         <v>625</v>
       </c>
-      <c r="C2" s="171" t="s">
+      <c r="C2" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="E2" s="171" t="s">
+      <c r="E2" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="F2" s="171" t="s">
+      <c r="F2" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="G2" s="172" t="s">
+      <c r="G2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="H2" s="172" t="s">
+      <c r="H2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="I2" s="172" t="s">
+      <c r="I2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="J2" s="172" t="s">
+      <c r="J2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="K2" s="172" t="s">
+      <c r="K2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="L2" s="172" t="s">
+      <c r="L2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="M2" s="172" t="s">
+      <c r="M2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="N2" s="172" t="s">
+      <c r="N2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="O2" s="172" t="s">
+      <c r="O2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="P2" s="172" t="s">
+      <c r="P2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Q2" s="172" t="s">
+      <c r="Q2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="R2" s="172" t="s">
+      <c r="R2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="S2" s="172" t="s">
+      <c r="S2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="T2" s="172" t="s">
+      <c r="T2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="U2" s="172" t="s">
+      <c r="U2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="V2" s="172" t="s">
+      <c r="V2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="W2" s="172" t="s">
+      <c r="W2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="X2" s="172" t="s">
+      <c r="X2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Y2" s="172" t="s">
+      <c r="Y2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Z2" s="172" t="s">
+      <c r="Z2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AA2" s="172"/>
-      <c r="AB2" s="172" t="s">
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AC2" s="172" t="s">
+      <c r="AC2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AD2" s="172" t="s">
+      <c r="AD2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AE2" s="172" t="s">
+      <c r="AE2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AF2" s="172" t="s">
+      <c r="AF2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AG2" s="172" t="s">
+      <c r="AG2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AH2" s="172" t="s">
+      <c r="AH2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AI2" s="172" t="s">
+      <c r="AI2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AJ2" s="172"/>
-      <c r="AK2" s="172" t="s">
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AL2" s="172" t="s">
+      <c r="AL2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AM2" s="172" t="s">
+      <c r="AM2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AN2" s="172" t="s">
+      <c r="AN2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AO2" s="172" t="s">
+      <c r="AO2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AP2" s="172" t="s">
+      <c r="AP2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AQ2" s="172" t="s">
+      <c r="AQ2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AR2" s="172" t="s">
+      <c r="AR2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AS2" s="172" t="s">
+      <c r="AS2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AT2" s="172" t="s">
+      <c r="AT2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AU2" s="172" t="s">
+      <c r="AU2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AV2" s="172" t="s">
+      <c r="AV2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AW2" s="172" t="s">
+      <c r="AW2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AX2" s="172" t="s">
+      <c r="AX2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AY2" s="172" t="s">
+      <c r="AY2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AZ2" s="172" t="s">
+      <c r="AZ2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BA2" s="172" t="s">
+      <c r="BA2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BB2" s="172" t="s">
+      <c r="BB2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BC2" s="172" t="s">
+      <c r="BC2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BD2" s="172" t="s">
+      <c r="BD2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BE2" s="172" t="s">
+      <c r="BE2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BF2" s="172" t="s">
+      <c r="BF2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BG2" s="172" t="s">
+      <c r="BG2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BH2" s="172" t="s">
+      <c r="BH2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BI2" s="172" t="s">
+      <c r="BI2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BJ2" s="172" t="s">
+      <c r="BJ2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BK2" s="172" t="s">
+      <c r="BK2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BL2" s="172" t="s">
+      <c r="BL2" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BM2" s="172" t="s">
+      <c r="BM2" s="97" t="s">
         <v>625</v>
       </c>
       <c r="BN2">
-        <f>COUNTA(B2:BM2)</f>
+        <f t="shared" ref="BN2:BN7" si="0">COUNTA(B2:BM2)</f>
         <v>62</v>
       </c>
     </row>
@@ -7723,104 +7798,104 @@
       <c r="A3" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="B3" s="170"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="172"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
-      <c r="M3" s="172"/>
-      <c r="N3" s="172"/>
-      <c r="O3" s="172"/>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="172"/>
-      <c r="R3" s="172"/>
-      <c r="S3" s="172"/>
-      <c r="T3" s="172"/>
-      <c r="U3" s="172"/>
-      <c r="V3" s="172"/>
-      <c r="W3" s="172"/>
-      <c r="X3" s="172"/>
-      <c r="Y3" s="172"/>
-      <c r="Z3" s="172"/>
-      <c r="AA3" s="172"/>
-      <c r="AB3" s="172"/>
-      <c r="AC3" s="172"/>
-      <c r="AD3" s="172"/>
-      <c r="AE3" s="172"/>
-      <c r="AF3" s="172"/>
-      <c r="AG3" s="172"/>
-      <c r="AH3" s="172"/>
-      <c r="AI3" s="172"/>
-      <c r="AJ3" s="172"/>
-      <c r="AK3" s="172"/>
-      <c r="AL3" s="172"/>
-      <c r="AM3" s="172"/>
-      <c r="AN3" s="172" t="s">
+      <c r="B3" s="95"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="97"/>
+      <c r="Q3" s="97"/>
+      <c r="R3" s="97"/>
+      <c r="S3" s="97"/>
+      <c r="T3" s="97"/>
+      <c r="U3" s="97"/>
+      <c r="V3" s="97"/>
+      <c r="W3" s="97"/>
+      <c r="X3" s="97"/>
+      <c r="Y3" s="97"/>
+      <c r="Z3" s="97"/>
+      <c r="AA3" s="97"/>
+      <c r="AB3" s="97"/>
+      <c r="AC3" s="97"/>
+      <c r="AD3" s="97"/>
+      <c r="AE3" s="97"/>
+      <c r="AF3" s="97"/>
+      <c r="AG3" s="97"/>
+      <c r="AH3" s="97"/>
+      <c r="AI3" s="97"/>
+      <c r="AJ3" s="97"/>
+      <c r="AK3" s="97"/>
+      <c r="AL3" s="97"/>
+      <c r="AM3" s="97"/>
+      <c r="AN3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AO3" s="172"/>
-      <c r="AP3" s="172"/>
-      <c r="AQ3" s="172"/>
-      <c r="AR3" s="172"/>
-      <c r="AS3" s="172"/>
-      <c r="AT3" s="172" t="s">
+      <c r="AO3" s="97"/>
+      <c r="AP3" s="97"/>
+      <c r="AQ3" s="97"/>
+      <c r="AR3" s="97"/>
+      <c r="AS3" s="97"/>
+      <c r="AT3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AU3" s="172" t="s">
+      <c r="AU3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AV3" s="172" t="s">
+      <c r="AV3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AW3" s="172" t="s">
+      <c r="AW3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AX3" s="172"/>
-      <c r="AY3" s="172" t="s">
+      <c r="AX3" s="97"/>
+      <c r="AY3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AZ3" s="172" t="s">
+      <c r="AZ3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BA3" s="172" t="s">
+      <c r="BA3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BB3" s="172" t="s">
+      <c r="BB3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BC3" s="172" t="s">
+      <c r="BC3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BD3" s="172"/>
-      <c r="BE3" s="172" t="s">
+      <c r="BD3" s="97"/>
+      <c r="BE3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BF3" s="172"/>
-      <c r="BG3" s="172" t="s">
+      <c r="BF3" s="97"/>
+      <c r="BG3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BH3" s="172" t="s">
+      <c r="BH3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BI3" s="172" t="s">
+      <c r="BI3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BJ3" s="172"/>
-      <c r="BK3" s="172"/>
-      <c r="BL3" s="172" t="s">
+      <c r="BJ3" s="97"/>
+      <c r="BK3" s="97"/>
+      <c r="BL3" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="BM3" s="172" t="s">
+      <c r="BM3" s="97" t="s">
         <v>625</v>
       </c>
       <c r="BN3">
-        <f>COUNTA(B3:BM3)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -7828,106 +7903,106 @@
       <c r="A4" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="B4" s="170" t="s">
+      <c r="B4" s="95" t="s">
         <v>625</v>
       </c>
-      <c r="C4" s="171" t="s">
+      <c r="C4" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="E4" s="171" t="s">
+      <c r="E4" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="F4" s="171" t="s">
+      <c r="F4" s="96" t="s">
         <v>625</v>
       </c>
-      <c r="G4" s="172" t="s">
+      <c r="G4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="I4" s="172"/>
-      <c r="J4" s="172" t="s">
+      <c r="I4" s="97"/>
+      <c r="J4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="L4" s="172" t="s">
+      <c r="L4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="M4" s="172"/>
-      <c r="N4" s="172"/>
-      <c r="O4" s="172" t="s">
+      <c r="M4" s="97"/>
+      <c r="N4" s="97"/>
+      <c r="O4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="P4" s="172" t="s">
+      <c r="P4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Q4" s="172"/>
-      <c r="R4" s="172"/>
-      <c r="S4" s="172" t="s">
+      <c r="Q4" s="97"/>
+      <c r="R4" s="97"/>
+      <c r="S4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="T4" s="172"/>
-      <c r="U4" s="172"/>
-      <c r="V4" s="172"/>
-      <c r="W4" s="172" t="s">
+      <c r="T4" s="97"/>
+      <c r="U4" s="97"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="X4" s="172" t="s">
+      <c r="X4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Y4" s="172" t="s">
+      <c r="Y4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="Z4" s="172" t="s">
+      <c r="Z4" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AA4" s="172"/>
-      <c r="AB4" s="172"/>
-      <c r="AC4" s="172"/>
-      <c r="AD4" s="172"/>
-      <c r="AE4" s="172"/>
-      <c r="AF4" s="172"/>
-      <c r="AG4" s="172"/>
-      <c r="AH4" s="172"/>
-      <c r="AI4" s="172"/>
-      <c r="AJ4" s="172"/>
-      <c r="AK4" s="172"/>
-      <c r="AL4" s="172"/>
-      <c r="AM4" s="172"/>
-      <c r="AN4" s="172"/>
-      <c r="AO4" s="172"/>
-      <c r="AP4" s="172"/>
-      <c r="AQ4" s="172"/>
-      <c r="AR4" s="172"/>
-      <c r="AS4" s="172"/>
-      <c r="AT4" s="172"/>
-      <c r="AU4" s="172"/>
-      <c r="AV4" s="172"/>
-      <c r="AW4" s="172"/>
-      <c r="AX4" s="172"/>
-      <c r="AY4" s="172"/>
-      <c r="AZ4" s="172"/>
-      <c r="BA4" s="172"/>
-      <c r="BB4" s="172"/>
-      <c r="BC4" s="172"/>
-      <c r="BD4" s="172"/>
-      <c r="BE4" s="172"/>
-      <c r="BF4" s="172"/>
-      <c r="BG4" s="172"/>
-      <c r="BH4" s="172"/>
-      <c r="BI4" s="172"/>
-      <c r="BJ4" s="172"/>
-      <c r="BK4" s="172"/>
-      <c r="BL4" s="172"/>
-      <c r="BM4" s="172"/>
+      <c r="AA4" s="97"/>
+      <c r="AB4" s="97"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="97"/>
+      <c r="AE4" s="97"/>
+      <c r="AF4" s="97"/>
+      <c r="AG4" s="97"/>
+      <c r="AH4" s="97"/>
+      <c r="AI4" s="97"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="97"/>
+      <c r="AL4" s="97"/>
+      <c r="AM4" s="97"/>
+      <c r="AN4" s="97"/>
+      <c r="AO4" s="97"/>
+      <c r="AP4" s="97"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="97"/>
+      <c r="AS4" s="97"/>
+      <c r="AT4" s="97"/>
+      <c r="AU4" s="97"/>
+      <c r="AV4" s="97"/>
+      <c r="AW4" s="97"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="97"/>
+      <c r="AZ4" s="97"/>
+      <c r="BA4" s="97"/>
+      <c r="BB4" s="97"/>
+      <c r="BC4" s="97"/>
+      <c r="BD4" s="97"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="97"/>
+      <c r="BG4" s="97"/>
+      <c r="BH4" s="97"/>
+      <c r="BI4" s="97"/>
+      <c r="BJ4" s="97"/>
+      <c r="BK4" s="97"/>
+      <c r="BL4" s="97"/>
+      <c r="BM4" s="97"/>
       <c r="BN4">
-        <f>COUNTA(B4:BM4)</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
@@ -7935,78 +8010,78 @@
       <c r="A5" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
-      <c r="E5" s="171"/>
-      <c r="F5" s="171"/>
-      <c r="G5" s="172" t="s">
+      <c r="B5" s="95"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="H5" s="172" t="s">
+      <c r="H5" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="I5" s="172" t="s">
+      <c r="I5" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="J5" s="172"/>
-      <c r="K5" s="172"/>
-      <c r="L5" s="172"/>
-      <c r="M5" s="172"/>
-      <c r="N5" s="172"/>
-      <c r="O5" s="172"/>
-      <c r="P5" s="172"/>
-      <c r="Q5" s="172"/>
-      <c r="R5" s="172"/>
-      <c r="S5" s="172"/>
-      <c r="T5" s="172"/>
-      <c r="U5" s="172"/>
-      <c r="V5" s="172"/>
-      <c r="W5" s="172"/>
-      <c r="X5" s="172"/>
-      <c r="Y5" s="172"/>
-      <c r="Z5" s="172"/>
-      <c r="AA5" s="172"/>
-      <c r="AB5" s="172"/>
-      <c r="AC5" s="172"/>
-      <c r="AD5" s="172"/>
-      <c r="AE5" s="172"/>
-      <c r="AF5" s="172"/>
-      <c r="AG5" s="172"/>
-      <c r="AH5" s="172"/>
-      <c r="AI5" s="172"/>
-      <c r="AJ5" s="172"/>
-      <c r="AK5" s="172"/>
-      <c r="AL5" s="172"/>
-      <c r="AM5" s="172"/>
-      <c r="AN5" s="172"/>
-      <c r="AO5" s="172"/>
-      <c r="AP5" s="172"/>
-      <c r="AQ5" s="172"/>
-      <c r="AR5" s="172"/>
-      <c r="AS5" s="172"/>
-      <c r="AT5" s="172"/>
-      <c r="AU5" s="172"/>
-      <c r="AV5" s="172"/>
-      <c r="AW5" s="172"/>
-      <c r="AX5" s="172"/>
-      <c r="AY5" s="172"/>
-      <c r="AZ5" s="172"/>
-      <c r="BA5" s="172"/>
-      <c r="BB5" s="172"/>
-      <c r="BC5" s="172"/>
-      <c r="BD5" s="172"/>
-      <c r="BE5" s="172"/>
-      <c r="BF5" s="172"/>
-      <c r="BG5" s="172"/>
-      <c r="BH5" s="172"/>
-      <c r="BI5" s="172"/>
-      <c r="BJ5" s="172"/>
-      <c r="BK5" s="172"/>
-      <c r="BL5" s="172"/>
-      <c r="BM5" s="172"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="97"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="97"/>
+      <c r="T5" s="97"/>
+      <c r="U5" s="97"/>
+      <c r="V5" s="97"/>
+      <c r="W5" s="97"/>
+      <c r="X5" s="97"/>
+      <c r="Y5" s="97"/>
+      <c r="Z5" s="97"/>
+      <c r="AA5" s="97"/>
+      <c r="AB5" s="97"/>
+      <c r="AC5" s="97"/>
+      <c r="AD5" s="97"/>
+      <c r="AE5" s="97"/>
+      <c r="AF5" s="97"/>
+      <c r="AG5" s="97"/>
+      <c r="AH5" s="97"/>
+      <c r="AI5" s="97"/>
+      <c r="AJ5" s="97"/>
+      <c r="AK5" s="97"/>
+      <c r="AL5" s="97"/>
+      <c r="AM5" s="97"/>
+      <c r="AN5" s="97"/>
+      <c r="AO5" s="97"/>
+      <c r="AP5" s="97"/>
+      <c r="AQ5" s="97"/>
+      <c r="AR5" s="97"/>
+      <c r="AS5" s="97"/>
+      <c r="AT5" s="97"/>
+      <c r="AU5" s="97"/>
+      <c r="AV5" s="97"/>
+      <c r="AW5" s="97"/>
+      <c r="AX5" s="97"/>
+      <c r="AY5" s="97"/>
+      <c r="AZ5" s="97"/>
+      <c r="BA5" s="97"/>
+      <c r="BB5" s="97"/>
+      <c r="BC5" s="97"/>
+      <c r="BD5" s="97"/>
+      <c r="BE5" s="97"/>
+      <c r="BF5" s="97"/>
+      <c r="BG5" s="97"/>
+      <c r="BH5" s="97"/>
+      <c r="BI5" s="97"/>
+      <c r="BJ5" s="97"/>
+      <c r="BK5" s="97"/>
+      <c r="BL5" s="97"/>
+      <c r="BM5" s="97"/>
       <c r="BN5">
-        <f>COUNTA(B5:BM5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -8014,96 +8089,96 @@
       <c r="A6" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="B6" s="170"/>
-      <c r="C6" s="171"/>
-      <c r="D6" s="171"/>
-      <c r="E6" s="171"/>
-      <c r="F6" s="171"/>
-      <c r="G6" s="172"/>
-      <c r="H6" s="172"/>
-      <c r="I6" s="172"/>
-      <c r="J6" s="172"/>
-      <c r="K6" s="172"/>
-      <c r="L6" s="172"/>
-      <c r="M6" s="172"/>
-      <c r="N6" s="172"/>
-      <c r="O6" s="172"/>
-      <c r="P6" s="172"/>
-      <c r="Q6" s="172"/>
-      <c r="R6" s="172"/>
-      <c r="S6" s="172"/>
-      <c r="T6" s="172" t="s">
+      <c r="B6" s="95"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="97"/>
+      <c r="O6" s="97"/>
+      <c r="P6" s="97"/>
+      <c r="Q6" s="97"/>
+      <c r="R6" s="97"/>
+      <c r="S6" s="97"/>
+      <c r="T6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="U6" s="172" t="s">
+      <c r="U6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="V6" s="172"/>
-      <c r="W6" s="172"/>
-      <c r="X6" s="172"/>
-      <c r="Y6" s="172"/>
-      <c r="Z6" s="172"/>
-      <c r="AA6" s="172" t="s">
+      <c r="V6" s="97"/>
+      <c r="W6" s="97"/>
+      <c r="X6" s="97"/>
+      <c r="Y6" s="97"/>
+      <c r="Z6" s="97"/>
+      <c r="AA6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AB6" s="172" t="s">
+      <c r="AB6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AC6" s="172" t="s">
+      <c r="AC6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AD6" s="172" t="s">
+      <c r="AD6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AE6" s="172" t="s">
+      <c r="AE6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AF6" s="172"/>
-      <c r="AG6" s="172"/>
-      <c r="AH6" s="172"/>
-      <c r="AI6" s="172" t="s">
+      <c r="AF6" s="97"/>
+      <c r="AG6" s="97"/>
+      <c r="AH6" s="97"/>
+      <c r="AI6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AJ6" s="172" t="s">
+      <c r="AJ6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AK6" s="172" t="s">
+      <c r="AK6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AL6" s="172" t="s">
+      <c r="AL6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AM6" s="172" t="s">
+      <c r="AM6" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AN6" s="172"/>
-      <c r="AO6" s="172"/>
-      <c r="AP6" s="172"/>
-      <c r="AQ6" s="172"/>
-      <c r="AR6" s="172"/>
-      <c r="AS6" s="172"/>
-      <c r="AT6" s="172"/>
-      <c r="AU6" s="172"/>
-      <c r="AV6" s="172"/>
-      <c r="AW6" s="172"/>
-      <c r="AX6" s="172"/>
-      <c r="AY6" s="172"/>
-      <c r="AZ6" s="172"/>
-      <c r="BA6" s="172"/>
-      <c r="BB6" s="172"/>
-      <c r="BC6" s="172"/>
-      <c r="BD6" s="172"/>
-      <c r="BE6" s="172"/>
-      <c r="BF6" s="172"/>
-      <c r="BG6" s="172"/>
-      <c r="BH6" s="172"/>
-      <c r="BI6" s="172"/>
-      <c r="BJ6" s="172"/>
-      <c r="BK6" s="172"/>
-      <c r="BL6" s="172"/>
-      <c r="BM6" s="172"/>
+      <c r="AN6" s="97"/>
+      <c r="AO6" s="97"/>
+      <c r="AP6" s="97"/>
+      <c r="AQ6" s="97"/>
+      <c r="AR6" s="97"/>
+      <c r="AS6" s="97"/>
+      <c r="AT6" s="97"/>
+      <c r="AU6" s="97"/>
+      <c r="AV6" s="97"/>
+      <c r="AW6" s="97"/>
+      <c r="AX6" s="97"/>
+      <c r="AY6" s="97"/>
+      <c r="AZ6" s="97"/>
+      <c r="BA6" s="97"/>
+      <c r="BB6" s="97"/>
+      <c r="BC6" s="97"/>
+      <c r="BD6" s="97"/>
+      <c r="BE6" s="97"/>
+      <c r="BF6" s="97"/>
+      <c r="BG6" s="97"/>
+      <c r="BH6" s="97"/>
+      <c r="BI6" s="97"/>
+      <c r="BJ6" s="97"/>
+      <c r="BK6" s="97"/>
+      <c r="BL6" s="97"/>
+      <c r="BM6" s="97"/>
       <c r="BN6">
-        <f>COUNTA(B6:BM6)</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -8111,335 +8186,335 @@
       <c r="A7" s="4" t="s">
         <v>624</v>
       </c>
-      <c r="B7" s="170"/>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
-      <c r="E7" s="171"/>
-      <c r="F7" s="171"/>
-      <c r="G7" s="172"/>
-      <c r="H7" s="172"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="172"/>
-      <c r="K7" s="172"/>
-      <c r="L7" s="172"/>
-      <c r="M7" s="172"/>
-      <c r="N7" s="172"/>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="172"/>
-      <c r="S7" s="172"/>
-      <c r="T7" s="172"/>
-      <c r="U7" s="172"/>
-      <c r="V7" s="172"/>
-      <c r="W7" s="172"/>
-      <c r="X7" s="172"/>
-      <c r="Y7" s="172"/>
-      <c r="Z7" s="172"/>
-      <c r="AA7" s="172"/>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="172"/>
-      <c r="AD7" s="172"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="172"/>
-      <c r="AG7" s="172"/>
-      <c r="AH7" s="172"/>
-      <c r="AI7" s="172"/>
-      <c r="AJ7" s="172"/>
-      <c r="AK7" s="172"/>
-      <c r="AL7" s="172"/>
-      <c r="AM7" s="172"/>
-      <c r="AN7" s="172"/>
-      <c r="AO7" s="172" t="s">
+      <c r="B7" s="95"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="97"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="97"/>
+      <c r="O7" s="97"/>
+      <c r="P7" s="97"/>
+      <c r="Q7" s="97"/>
+      <c r="R7" s="97"/>
+      <c r="S7" s="97"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="97"/>
+      <c r="V7" s="97"/>
+      <c r="W7" s="97"/>
+      <c r="X7" s="97"/>
+      <c r="Y7" s="97"/>
+      <c r="Z7" s="97"/>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="97"/>
+      <c r="AC7" s="97"/>
+      <c r="AD7" s="97"/>
+      <c r="AE7" s="97"/>
+      <c r="AF7" s="97"/>
+      <c r="AG7" s="97"/>
+      <c r="AH7" s="97"/>
+      <c r="AI7" s="97"/>
+      <c r="AJ7" s="97"/>
+      <c r="AK7" s="97"/>
+      <c r="AL7" s="97"/>
+      <c r="AM7" s="97"/>
+      <c r="AN7" s="97"/>
+      <c r="AO7" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AP7" s="172" t="s">
+      <c r="AP7" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AQ7" s="172" t="s">
+      <c r="AQ7" s="97" t="s">
         <v>625</v>
       </c>
-      <c r="AR7" s="172"/>
-      <c r="AS7" s="172"/>
-      <c r="AT7" s="172"/>
-      <c r="AU7" s="172"/>
-      <c r="AV7" s="172"/>
-      <c r="AW7" s="172"/>
-      <c r="AX7" s="172"/>
-      <c r="AY7" s="172"/>
-      <c r="AZ7" s="172"/>
-      <c r="BA7" s="172"/>
-      <c r="BB7" s="172"/>
-      <c r="BC7" s="172"/>
-      <c r="BD7" s="172"/>
-      <c r="BE7" s="172"/>
-      <c r="BF7" s="172"/>
-      <c r="BG7" s="172"/>
-      <c r="BH7" s="172"/>
-      <c r="BI7" s="172"/>
-      <c r="BJ7" s="172"/>
-      <c r="BK7" s="172"/>
-      <c r="BL7" s="172"/>
-      <c r="BM7" s="172"/>
+      <c r="AR7" s="97"/>
+      <c r="AS7" s="97"/>
+      <c r="AT7" s="97"/>
+      <c r="AU7" s="97"/>
+      <c r="AV7" s="97"/>
+      <c r="AW7" s="97"/>
+      <c r="AX7" s="97"/>
+      <c r="AY7" s="97"/>
+      <c r="AZ7" s="97"/>
+      <c r="BA7" s="97"/>
+      <c r="BB7" s="97"/>
+      <c r="BC7" s="97"/>
+      <c r="BD7" s="97"/>
+      <c r="BE7" s="97"/>
+      <c r="BF7" s="97"/>
+      <c r="BG7" s="97"/>
+      <c r="BH7" s="97"/>
+      <c r="BI7" s="97"/>
+      <c r="BJ7" s="97"/>
+      <c r="BK7" s="97"/>
+      <c r="BL7" s="97"/>
+      <c r="BM7" s="97"/>
       <c r="BN7">
-        <f>COUNTA(B7:BM7)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
-      <c r="B8" s="168">
-        <f t="shared" ref="B8:BL8" si="0">COUNTA(B2:B7)</f>
-        <v>2</v>
-      </c>
-      <c r="C8" s="168">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D8" s="168">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E8" s="168">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="F8" s="168">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="G8" s="168">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H8" s="168">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="B8" s="93">
+        <f t="shared" ref="B8:BL8" si="1">COUNTA(B2:B7)</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D8" s="93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E8" s="93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F8" s="93">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="93">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="I8" s="168">
-        <f t="shared" si="0"/>
+      <c r="H8" s="93">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="J8" s="168">
-        <f t="shared" si="0"/>
+      <c r="J8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="K8" s="168">
-        <f t="shared" si="0"/>
+      <c r="K8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="L8" s="168">
-        <f t="shared" si="0"/>
+      <c r="L8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="M8" s="168">
-        <f t="shared" si="0"/>
+      <c r="M8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="168">
-        <f t="shared" si="0"/>
+      <c r="N8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O8" s="168">
-        <f t="shared" si="0"/>
+      <c r="O8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="P8" s="168">
-        <f t="shared" si="0"/>
+      <c r="P8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Q8" s="168">
-        <f t="shared" si="0"/>
+      <c r="Q8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R8" s="168">
-        <f t="shared" si="0"/>
+      <c r="R8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S8" s="168">
-        <f t="shared" si="0"/>
+      <c r="S8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="T8" s="168">
-        <f t="shared" si="0"/>
+      <c r="T8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="U8" s="168">
-        <f t="shared" si="0"/>
+      <c r="U8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="V8" s="168">
-        <f t="shared" si="0"/>
+      <c r="V8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="W8" s="168">
-        <f t="shared" si="0"/>
+      <c r="W8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="X8" s="168">
-        <f t="shared" si="0"/>
+      <c r="X8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Y8" s="168">
-        <f t="shared" si="0"/>
+      <c r="Y8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="Z8" s="168">
-        <f t="shared" si="0"/>
+      <c r="Z8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AA8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AA8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AB8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AB8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AC8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AC8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AD8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AD8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AE8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AE8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AF8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AG8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AG8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AH8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AH8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AI8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AI8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AJ8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AJ8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AK8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AK8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AL8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AL8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AM8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AM8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AN8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AN8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AO8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AO8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AP8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AP8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AQ8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AQ8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AR8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AR8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AS8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AS8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AT8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AT8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AU8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AU8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AV8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AV8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AW8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AW8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AX8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AX8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AY8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AY8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AZ8" s="168">
-        <f t="shared" si="0"/>
+      <c r="AZ8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BA8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BA8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BB8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BB8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BC8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BC8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BD8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BD8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BE8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BE8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BF8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BF8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BG8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BG8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BH8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BH8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BI8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BI8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BJ8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BJ8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BK8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BK8" s="93">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="BL8" s="168">
-        <f t="shared" si="0"/>
+      <c r="BL8" s="93">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="BM8" s="168">
+      <c r="BM8" s="93">
         <f>COUNTA(BM2:BM7)</f>
         <v>2</v>
       </c>
@@ -9108,17 +9183,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="114" t="s">
         <v>552</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="105"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="105"/>
-      <c r="F2" s="105"/>
-      <c r="G2" s="105"/>
-      <c r="H2" s="105"/>
-      <c r="I2" s="105"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
@@ -9128,139 +9203,139 @@
       <c r="A4" s="65" t="s">
         <v>563</v>
       </c>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="143" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="108"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
       <c r="F4" s="66" t="s">
         <v>564</v>
       </c>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="146" t="s">
         <v>559</v>
       </c>
-      <c r="H4" s="110"/>
-      <c r="I4" s="111"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="148"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
         <v>565</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="137" t="s">
         <v>566</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="100" t="s">
+      <c r="C5" s="138"/>
+      <c r="D5" s="138"/>
+      <c r="E5" s="139" t="s">
         <v>567</v>
       </c>
       <c r="F5" s="68" t="s">
         <v>567</v>
       </c>
-      <c r="G5" s="112" t="s">
+      <c r="G5" s="149" t="s">
         <v>582</v>
       </c>
-      <c r="H5" s="102"/>
-      <c r="I5" s="103"/>
+      <c r="H5" s="141"/>
+      <c r="I5" s="142"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
         <v>568</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="100"/>
+      <c r="C6" s="138"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="68" t="s">
         <v>569</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G6" s="140" t="s">
         <v>560</v>
       </c>
-      <c r="H6" s="102"/>
-      <c r="I6" s="103"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="142"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
         <v>571</v>
       </c>
-      <c r="B7" s="118" t="s">
+      <c r="B7" s="135" t="s">
         <v>583</v>
       </c>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="119"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
+      <c r="I7" s="136"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="104" t="s">
+      <c r="A10" s="114" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="105"/>
-      <c r="C10" s="105"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="113" t="s">
+      <c r="A12" s="130" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="114"/>
-      <c r="C12" s="115"/>
-      <c r="D12" s="116" t="s">
+      <c r="B12" s="131"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="133" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="114"/>
-      <c r="F12" s="115"/>
-      <c r="G12" s="116" t="s">
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="133" t="s">
         <v>575</v>
       </c>
-      <c r="H12" s="114"/>
-      <c r="I12" s="117"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="134"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="108" t="s">
         <v>584</v>
       </c>
-      <c r="B13" s="128"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="127" t="s">
+      <c r="B13" s="105"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="104" t="s">
         <v>586</v>
       </c>
-      <c r="E13" s="128"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="127" t="s">
+      <c r="E13" s="105"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="104" t="s">
         <v>585</v>
       </c>
-      <c r="H13" s="128"/>
-      <c r="I13" s="129"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="104" t="s">
+      <c r="A16" s="114" t="s">
         <v>576</v>
       </c>
-      <c r="B16" s="105"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
@@ -9270,18 +9345,18 @@
       <c r="B18" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="C18" s="135" t="s">
+      <c r="C18" s="116" t="s">
         <v>578</v>
       </c>
-      <c r="D18" s="136"/>
-      <c r="E18" s="137"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
       <c r="F18" s="74" t="s">
         <v>573</v>
       </c>
-      <c r="G18" s="138" t="s">
+      <c r="G18" s="119" t="s">
         <v>579</v>
       </c>
-      <c r="H18" s="138"/>
+      <c r="H18" s="119"/>
       <c r="I18" s="75" t="s">
         <v>580</v>
       </c>
@@ -9293,18 +9368,18 @@
       <c r="B19" s="77">
         <v>42533</v>
       </c>
-      <c r="C19" s="139" t="s">
+      <c r="C19" s="120" t="s">
         <v>587</v>
       </c>
-      <c r="D19" s="140"/>
-      <c r="E19" s="141"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="122"/>
       <c r="F19" s="79" t="s">
         <v>588</v>
       </c>
-      <c r="G19" s="142" t="s">
+      <c r="G19" s="123" t="s">
         <v>589</v>
       </c>
-      <c r="H19" s="143"/>
+      <c r="H19" s="124"/>
       <c r="I19" s="78" t="s">
         <v>590</v>
       </c>
@@ -9312,23 +9387,23 @@
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="139"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="141"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="121"/>
+      <c r="E20" s="122"/>
       <c r="F20" s="79"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="121"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="132"/>
-      <c r="D21" s="133"/>
-      <c r="E21" s="134"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
       <c r="F21" s="79"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="121"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="113"/>
       <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9338,8 +9413,8 @@
       <c r="D22" s="81"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="121"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="113"/>
       <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9349,8 +9424,8 @@
       <c r="D23" s="81"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="121"/>
+      <c r="G23" s="112"/>
+      <c r="H23" s="113"/>
       <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9360,23 +9435,40 @@
       <c r="D24" s="81"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
-      <c r="G24" s="120"/>
-      <c r="H24" s="121"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="113"/>
       <c r="I24" s="84"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="85"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="122"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="124"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="127"/>
       <c r="F25" s="87"/>
-      <c r="G25" s="125"/>
-      <c r="H25" s="126"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="129"/>
       <c r="I25" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A13:C13"/>
@@ -9389,23 +9481,6 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -9435,10 +9510,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="144" t="s">
+      <c r="B2" s="150" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="144"/>
+      <c r="C2" s="150"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="19" t="s">
@@ -9469,10 +9544,10 @@
       <c r="C6" s="21"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="150" t="s">
         <v>166</v>
       </c>
-      <c r="C7" s="144"/>
+      <c r="C7" s="150"/>
     </row>
     <row r="8" spans="2:3" ht="120" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
@@ -9491,10 +9566,10 @@
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="147" t="s">
+      <c r="B11" s="153" t="s">
         <v>167</v>
       </c>
-      <c r="C11" s="148"/>
+      <c r="C11" s="154"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
@@ -9541,10 +9616,10 @@
       <c r="C17" s="91"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="145" t="s">
+      <c r="B18" s="151" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="146"/>
+      <c r="C18" s="152"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
@@ -11660,100 +11735,100 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="152"/>
+      <c r="C3" s="164"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="149" t="s">
+      <c r="B4" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="150"/>
+      <c r="C4" s="170"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="152"/>
+      <c r="C5" s="164"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="153" t="s">
+      <c r="B6" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="154"/>
+      <c r="C6" s="166"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="152"/>
+      <c r="C7" s="164"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="149" t="s">
+      <c r="B8" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="150"/>
+      <c r="C8" s="170"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="151" t="s">
+      <c r="B9" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="152"/>
+      <c r="C9" s="164"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="154"/>
+      <c r="C10" s="166"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="153" t="s">
+      <c r="B11" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="154"/>
+      <c r="C11" s="166"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="153" t="s">
+      <c r="B12" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="154"/>
+      <c r="C12" s="166"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="154"/>
+      <c r="C13" s="166"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="151" t="s">
+      <c r="B14" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="152"/>
+      <c r="C14" s="164"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="150"/>
+      <c r="C15" s="170"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="151" t="s">
+      <c r="B16" s="163" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="152"/>
+      <c r="C16" s="164"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="165" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="154"/>
+      <c r="C17" s="166"/>
     </row>
     <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="149" t="s">
+      <c r="B18" s="169" t="s">
         <v>199</v>
       </c>
-      <c r="C18" s="150"/>
+      <c r="C18" s="170"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11765,82 +11840,82 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="151" t="s">
+      <c r="B21" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="152"/>
+      <c r="C21" s="164"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="149" t="s">
+      <c r="B22" s="169" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="150"/>
+      <c r="C22" s="170"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="151" t="s">
+      <c r="B23" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="152"/>
+      <c r="C23" s="164"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="153" t="s">
+      <c r="B24" s="165" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="154"/>
+      <c r="C24" s="166"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="151" t="s">
+      <c r="B25" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="152"/>
+      <c r="C25" s="164"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="149" t="s">
+      <c r="B26" s="169" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="150"/>
+      <c r="C26" s="170"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="151" t="s">
+      <c r="B27" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="152"/>
+      <c r="C27" s="164"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="154"/>
+      <c r="C28" s="166"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="153" t="s">
+      <c r="B29" s="165" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="154"/>
+      <c r="C29" s="166"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="165" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="154"/>
+      <c r="C30" s="166"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="153" t="s">
+      <c r="B31" s="165" t="s">
         <v>536</v>
       </c>
-      <c r="C31" s="154"/>
+      <c r="C31" s="166"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="151" t="s">
+      <c r="B32" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="152"/>
+      <c r="C32" s="164"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="149" t="s">
+      <c r="B33" s="169" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="150"/>
+      <c r="C33" s="170"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11852,82 +11927,82 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="151" t="s">
+      <c r="B36" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="152"/>
+      <c r="C36" s="164"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="149" t="s">
+      <c r="B37" s="169" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="150"/>
+      <c r="C37" s="170"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="152"/>
+      <c r="C38" s="164"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="154"/>
+      <c r="C39" s="166"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="151" t="s">
+      <c r="B40" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="152"/>
+      <c r="C40" s="164"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="149" t="s">
+      <c r="B41" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="150"/>
+      <c r="C41" s="170"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="151" t="s">
+      <c r="B42" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="152"/>
+      <c r="C42" s="164"/>
     </row>
     <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="153" t="s">
+      <c r="B43" s="165" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="154"/>
+      <c r="C43" s="166"/>
     </row>
     <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="153" t="s">
+      <c r="B44" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="154"/>
+      <c r="C44" s="166"/>
     </row>
     <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="153" t="s">
+      <c r="B45" s="165" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="154"/>
+      <c r="C45" s="166"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="153" t="s">
+      <c r="B46" s="165" t="s">
         <v>195</v>
       </c>
-      <c r="C46" s="154"/>
+      <c r="C46" s="166"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="151" t="s">
+      <c r="B47" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="152"/>
+      <c r="C47" s="164"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="149" t="s">
+      <c r="B48" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="150"/>
+      <c r="C48" s="170"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11939,100 +12014,100 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="151" t="s">
+      <c r="B51" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="152"/>
+      <c r="C51" s="164"/>
     </row>
     <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="149" t="s">
+      <c r="B52" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="150"/>
+      <c r="C52" s="170"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="151" t="s">
+      <c r="B53" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="152"/>
+      <c r="C53" s="164"/>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="153" t="s">
+      <c r="B54" s="165" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="154"/>
+      <c r="C54" s="166"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="151" t="s">
+      <c r="B55" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="152"/>
+      <c r="C55" s="164"/>
     </row>
     <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="149" t="s">
+      <c r="B56" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="150"/>
+      <c r="C56" s="170"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="151" t="s">
+      <c r="B57" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="152"/>
+      <c r="C57" s="164"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="153" t="s">
+      <c r="B58" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="154"/>
+      <c r="C58" s="166"/>
     </row>
     <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="153" t="s">
+      <c r="B59" s="165" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="154"/>
+      <c r="C59" s="166"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="153" t="s">
+      <c r="B60" s="165" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="154"/>
+      <c r="C60" s="166"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="153" t="s">
+      <c r="B61" s="165" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="154"/>
+      <c r="C61" s="166"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="153" t="s">
+      <c r="B62" s="165" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="154"/>
+      <c r="C62" s="166"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="153" t="s">
+      <c r="B63" s="165" t="s">
         <v>196</v>
       </c>
-      <c r="C63" s="154"/>
+      <c r="C63" s="166"/>
     </row>
     <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="153" t="s">
+      <c r="B64" s="165" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="154"/>
+      <c r="C64" s="166"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="151" t="s">
+      <c r="B65" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="152"/>
+      <c r="C65" s="164"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="149" t="s">
+      <c r="B66" s="169" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="150"/>
+      <c r="C66" s="170"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12044,22 +12119,22 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="151" t="s">
+      <c r="B69" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="152"/>
+      <c r="C69" s="164"/>
     </row>
     <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="153" t="s">
+      <c r="B70" s="165" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="154"/>
+      <c r="C70" s="166"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B71" s="161" t="s">
+      <c r="B71" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C71" s="162"/>
+      <c r="C71" s="168"/>
     </row>
     <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="155" t="s">
@@ -12068,22 +12143,22 @@
       <c r="C72" s="156"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="157" t="s">
+      <c r="B73" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="158"/>
+      <c r="C73" s="160"/>
     </row>
     <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="159" t="s">
+      <c r="B74" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="160"/>
+      <c r="C74" s="162"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="157" t="s">
+      <c r="B75" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="158"/>
+      <c r="C75" s="160"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="155" t="s">
@@ -12128,22 +12203,22 @@
       <c r="C82" s="156"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="157" t="s">
+      <c r="B83" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="158"/>
+      <c r="C83" s="160"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="159" t="s">
+      <c r="B84" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="160"/>
+      <c r="C84" s="162"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="157" t="s">
+      <c r="B85" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="158"/>
+      <c r="C85" s="160"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B86" s="155" t="s">
@@ -12152,10 +12227,10 @@
       <c r="C86" s="156"/>
     </row>
     <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="163" t="s">
+      <c r="B87" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="C87" s="164"/>
+      <c r="C87" s="158"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12167,22 +12242,22 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="151" t="s">
+      <c r="B90" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="152"/>
+      <c r="C90" s="164"/>
     </row>
     <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="153" t="s">
+      <c r="B91" s="165" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="154"/>
+      <c r="C91" s="166"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B92" s="161" t="s">
+      <c r="B92" s="167" t="s">
         <v>53</v>
       </c>
-      <c r="C92" s="162"/>
+      <c r="C92" s="168"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B93" s="155" t="s">
@@ -12191,22 +12266,22 @@
       <c r="C93" s="156"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="157" t="s">
+      <c r="B94" s="159" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="158"/>
+      <c r="C94" s="160"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="159" t="s">
+      <c r="B95" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="160"/>
+      <c r="C95" s="162"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="157" t="s">
+      <c r="B96" s="159" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="158"/>
+      <c r="C96" s="160"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B97" s="155" t="s">
@@ -12251,22 +12326,22 @@
       <c r="C103" s="156"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="157" t="s">
+      <c r="B104" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="158"/>
+      <c r="C104" s="160"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="159" t="s">
+      <c r="B105" s="161" t="s">
         <v>66</v>
       </c>
-      <c r="C105" s="160"/>
+      <c r="C105" s="162"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="157" t="s">
+      <c r="B106" s="159" t="s">
         <v>200</v>
       </c>
-      <c r="C106" s="158"/>
+      <c r="C106" s="160"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B107" s="155" t="s">
@@ -12275,20 +12350,86 @@
       <c r="C107" s="156"/>
     </row>
     <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="163" t="s">
+      <c r="B108" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="C108" s="164"/>
+      <c r="C108" s="158"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -12305,79 +12446,13 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignDocument/(5Team_Analysis_001) Architecture driver specification.xlsx
+++ b/DesignDocument/(5Team_Analysis_001) Architecture driver specification.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\surepark\SureParkSystem\DesignDocument\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sanghee3.lee\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="24960" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="25920" yWindow="0" windowWidth="19530" windowHeight="8295" tabRatio="813" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="18" r:id="rId1"/>
@@ -218,7 +218,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="638">
   <si>
     <t>FR-202</t>
   </si>
@@ -881,10 +881,6 @@
   </si>
   <si>
     <t>UC 1.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Scalability</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2273,9 +2269,6 @@
   </si>
   <si>
     <t>System should be able to restrict access to each function of the account authority.</t>
-  </si>
-  <si>
-    <t>If owner remove a parking lot, it should be reflected in System without stopping.</t>
   </si>
   <si>
     <t>System shall provide confirmation information within 3 seconds on parking reservation complete.</t>
@@ -2564,10 +2557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If owner add a parking lot, it should be reflected without stopping System.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SE-02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2625,6 +2614,26 @@
   </si>
   <si>
     <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extensibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner add a parking lot, maximum 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owner remove a parking lot, minimum 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3922,6 +3931,93 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="10" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="11" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="9" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="9" borderId="53" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3946,18 +4042,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="22" fillId="10" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="11" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3985,81 +4069,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="57" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="58" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="59" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="46" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="36" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="37" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="35" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="11" borderId="47" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="9" borderId="45" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4075,52 +4084,52 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4915,7 +4924,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B5" s="99"/>
       <c r="C5" s="99"/>
@@ -4967,13 +4976,13 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="60" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="13" spans="1:8" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="100" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B13" s="100"/>
       <c r="C13" s="100"/>
@@ -5015,7 +5024,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="101" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B30" s="101"/>
       <c r="C30" s="101"/>
@@ -5027,7 +5036,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="101" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B31" s="101"/>
       <c r="C31" s="101"/>
@@ -5040,7 +5049,7 @@
     </row>
     <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="62" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5129,22 +5138,22 @@
     <row r="54" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3"/>
     <row r="55" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H55" s="64" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="56" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H56" s="61" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="57" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H57" s="61" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H58" s="61" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="59" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -5152,12 +5161,12 @@
     </row>
     <row r="60" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H60" s="61" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H61" s="61" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="62" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
@@ -5165,7 +5174,7 @@
     </row>
     <row r="63" spans="7:8" s="63" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
       <c r="H63" s="61" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5212,130 +5221,130 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="164"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="165" t="s">
         <v>109</v>
       </c>
-      <c r="C4" s="162"/>
+      <c r="C4" s="166"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="164"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="162"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="160"/>
+      <c r="C7" s="164"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="161" t="s">
-        <v>426</v>
-      </c>
-      <c r="C8" s="162"/>
+      <c r="B8" s="165" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="166"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="159" t="s">
+      <c r="B9" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="160"/>
+      <c r="C9" s="164"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="161" t="s">
+        <v>416</v>
+      </c>
+      <c r="C10" s="162"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="161" t="s">
+        <v>415</v>
+      </c>
+      <c r="C11" s="162"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="161" t="s">
+        <v>414</v>
+      </c>
+      <c r="C12" s="162"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="161" t="s">
         <v>417</v>
       </c>
-      <c r="C10" s="156"/>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="155" t="s">
-        <v>416</v>
-      </c>
-      <c r="C11" s="156"/>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
-        <v>415</v>
-      </c>
-      <c r="C12" s="156"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="155" t="s">
+      <c r="C13" s="162"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="161" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="162"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="161" t="s">
+        <v>419</v>
+      </c>
+      <c r="C15" s="162"/>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16" s="161" t="s">
         <v>418</v>
       </c>
-      <c r="C13" s="156"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
-        <v>537</v>
-      </c>
-      <c r="C14" s="156"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="155" t="s">
+      <c r="C16" s="162"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="161" t="s">
         <v>420</v>
       </c>
-      <c r="C15" s="156"/>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="155" t="s">
-        <v>419</v>
-      </c>
-      <c r="C16" s="156"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="155" t="s">
+      <c r="C17" s="162"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="161" t="s">
         <v>421</v>
       </c>
-      <c r="C17" s="156"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="155" t="s">
+      <c r="C18" s="162"/>
+    </row>
+    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="161" t="s">
         <v>422</v>
       </c>
-      <c r="C18" s="156"/>
-    </row>
-    <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="155" t="s">
+      <c r="C19" s="162"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="164"/>
+    </row>
+    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="165" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" s="166"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="163" t="s">
         <v>423</v>
       </c>
-      <c r="C19" s="156"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="159" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="160"/>
-    </row>
-    <row r="21" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="161" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="162"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B22" s="159" t="s">
+      <c r="C22" s="164"/>
+    </row>
+    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="169" t="s">
         <v>424</v>
       </c>
-      <c r="C22" s="160"/>
-    </row>
-    <row r="23" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="157" t="s">
-        <v>425</v>
-      </c>
-      <c r="C23" s="158"/>
+      <c r="C23" s="170"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5347,103 +5356,130 @@
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="163" t="s">
+      <c r="B26" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="164"/>
+      <c r="C26" s="158"/>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="169" t="s">
+      <c r="B27" s="155" t="s">
         <v>114</v>
       </c>
-      <c r="C27" s="170"/>
+      <c r="C27" s="156"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="159" t="s">
+      <c r="B28" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="160"/>
+      <c r="C28" s="164"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C29" s="156"/>
+      <c r="C29" s="162"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="159" t="s">
+      <c r="B30" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="160"/>
+      <c r="C30" s="164"/>
     </row>
     <row r="31" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="161" t="s">
+      <c r="B31" s="165" t="s">
+        <v>425</v>
+      </c>
+      <c r="C31" s="166"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="164"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="161" t="s">
         <v>426</v>
       </c>
-      <c r="C31" s="162"/>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="159" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="160"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="155" t="s">
+      <c r="C33" s="162"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="159" t="s">
         <v>427</v>
       </c>
-      <c r="C33" s="156"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B34" s="165" t="s">
+      <c r="C34" s="160"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="159" t="s">
         <v>428</v>
       </c>
-      <c r="C34" s="166"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="165" t="s">
+      <c r="C35" s="160"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="159" t="s">
         <v>429</v>
       </c>
-      <c r="C35" s="166"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="165" t="s">
+      <c r="C36" s="160"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="159" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="166"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="165" t="s">
+      <c r="C37" s="160"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="159" t="s">
         <v>431</v>
       </c>
-      <c r="C37" s="166"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="165" t="s">
+      <c r="C38" s="160"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="161" t="s">
         <v>432</v>
       </c>
-      <c r="C38" s="166"/>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="155" t="s">
-        <v>433</v>
-      </c>
-      <c r="C39" s="156"/>
+      <c r="C39" s="162"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="164"/>
+      <c r="C40" s="158"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="155" t="s">
         <v>115</v>
       </c>
-      <c r="C41" s="170"/>
+      <c r="C41" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -5454,33 +5490,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5507,230 +5516,230 @@
     <row r="1" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="159" t="s">
+      <c r="B3" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="160"/>
+      <c r="C3" s="164"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="161" t="s">
+      <c r="B4" s="165" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="162"/>
+      <c r="C4" s="166"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="160"/>
+      <c r="C5" s="164"/>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="155" t="s">
+      <c r="B6" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="162"/>
     </row>
     <row r="7" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="155" t="s">
+      <c r="B7" s="161" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="156"/>
+      <c r="C7" s="162"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="159" t="s">
+      <c r="B8" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="160"/>
+      <c r="C8" s="164"/>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="161" t="s">
+      <c r="B9" s="165" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="162"/>
+      <c r="C9" s="166"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="159" t="s">
+      <c r="B10" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="160"/>
+      <c r="C10" s="164"/>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="155" t="s">
+      <c r="B11" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="156"/>
+      <c r="C11" s="162"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="161" t="s">
+        <v>346</v>
+      </c>
+      <c r="C12" s="162"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="161" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="156"/>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="155" t="s">
+      <c r="C13" s="162"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="161" t="s">
         <v>348</v>
       </c>
-      <c r="C13" s="156"/>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="155" t="s">
+      <c r="C14" s="162"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="161" t="s">
         <v>349</v>
       </c>
-      <c r="C14" s="156"/>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="155" t="s">
+      <c r="C15" s="162"/>
+    </row>
+    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="161" t="s">
         <v>350</v>
       </c>
-      <c r="C15" s="156"/>
-    </row>
-    <row r="16" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="155" t="s">
+      <c r="C16" s="162"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="161" t="s">
         <v>351</v>
       </c>
-      <c r="C16" s="156"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="155" t="s">
+      <c r="C17" s="162"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="161" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="162"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B19" s="161" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="162"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="161" t="s">
+        <v>365</v>
+      </c>
+      <c r="C20" s="162"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="161" t="s">
+        <v>366</v>
+      </c>
+      <c r="C21" s="162"/>
+    </row>
+    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="165" t="s">
+        <v>367</v>
+      </c>
+      <c r="C22" s="166"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="164"/>
+    </row>
+    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="161" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="156"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B18" s="155" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="156"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B19" s="155" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="156"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B20" s="155" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" s="156"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="155" t="s">
-        <v>367</v>
-      </c>
-      <c r="C21" s="156"/>
-    </row>
-    <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="161" t="s">
-        <v>368</v>
-      </c>
-      <c r="C22" s="162"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="159" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="160"/>
-    </row>
-    <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="155" t="s">
-        <v>353</v>
-      </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="162"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="167" t="s">
+        <v>354</v>
+      </c>
+      <c r="C25" s="168"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="161" t="s">
+        <v>353</v>
+      </c>
+      <c r="C26" s="162"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="161" t="s">
         <v>355</v>
       </c>
-      <c r="C25" s="168"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="155" t="s">
-        <v>354</v>
-      </c>
-      <c r="C26" s="156"/>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="155" t="s">
+      <c r="C27" s="162"/>
+    </row>
+    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="169" t="s">
         <v>356</v>
       </c>
-      <c r="C27" s="156"/>
-    </row>
-    <row r="28" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="157" t="s">
-        <v>357</v>
-      </c>
-      <c r="C28" s="158"/>
+      <c r="C28" s="170"/>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="30" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="163" t="s">
+      <c r="B31" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="164"/>
+      <c r="C31" s="158"/>
     </row>
     <row r="32" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="169" t="s">
-        <v>436</v>
-      </c>
-      <c r="C32" s="170"/>
+      <c r="B32" s="155" t="s">
+        <v>435</v>
+      </c>
+      <c r="C32" s="156"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="159" t="s">
+      <c r="B33" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="160"/>
+      <c r="C33" s="164"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="155" t="s">
+      <c r="B34" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C34" s="156"/>
+      <c r="C34" s="162"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="159" t="s">
+      <c r="B35" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="160"/>
+      <c r="C35" s="164"/>
     </row>
     <row r="36" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="161" t="s">
+      <c r="B36" s="165" t="s">
+        <v>437</v>
+      </c>
+      <c r="C36" s="166"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" s="164"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="161" t="s">
         <v>438</v>
       </c>
-      <c r="C36" s="162"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" s="159" t="s">
-        <v>55</v>
-      </c>
-      <c r="C37" s="160"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="155" t="s">
+      <c r="C38" s="162"/>
+    </row>
+    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="161" t="s">
         <v>439</v>
       </c>
-      <c r="C38" s="156"/>
-    </row>
-    <row r="39" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="155" t="s">
-        <v>440</v>
-      </c>
-      <c r="C39" s="156"/>
+      <c r="C39" s="162"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="167" t="s">
@@ -5739,10 +5748,10 @@
       <c r="C40" s="168"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="157" t="s">
-        <v>441</v>
-      </c>
-      <c r="C41" s="158"/>
+      <c r="B41" s="169" t="s">
+        <v>440</v>
+      </c>
+      <c r="C41" s="170"/>
     </row>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="43" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5754,151 +5763,185 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="163" t="s">
+      <c r="B44" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C44" s="164"/>
+      <c r="C44" s="158"/>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="169" t="s">
+      <c r="B45" s="155" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="170"/>
+      <c r="C45" s="156"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="159" t="s">
+      <c r="B46" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="160"/>
+      <c r="C46" s="164"/>
     </row>
     <row r="47" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="155" t="s">
+      <c r="B47" s="161" t="s">
         <v>110</v>
       </c>
-      <c r="C47" s="156"/>
+      <c r="C47" s="162"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B48" s="159" t="s">
+      <c r="B48" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C48" s="160"/>
+      <c r="C48" s="164"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="161" t="s">
-        <v>437</v>
-      </c>
-      <c r="C49" s="162"/>
+      <c r="B49" s="165" t="s">
+        <v>436</v>
+      </c>
+      <c r="C49" s="166"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="159" t="s">
+      <c r="B50" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="160"/>
+      <c r="C50" s="164"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="155" t="s">
+      <c r="B51" s="161" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="156"/>
+      <c r="C51" s="162"/>
     </row>
     <row r="52" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="155" t="s">
+      <c r="B52" s="161" t="s">
+        <v>358</v>
+      </c>
+      <c r="C52" s="162"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="159" t="s">
+        <v>357</v>
+      </c>
+      <c r="C53" s="160"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="159" t="s">
         <v>359</v>
       </c>
-      <c r="C52" s="156"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="165" t="s">
-        <v>358</v>
-      </c>
-      <c r="C53" s="166"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="165" t="s">
+      <c r="C54" s="160"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="159" t="s">
         <v>360</v>
       </c>
-      <c r="C54" s="166"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="165" t="s">
+      <c r="C55" s="160"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="159" t="s">
         <v>361</v>
       </c>
-      <c r="C55" s="166"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B56" s="165" t="s">
+      <c r="C56" s="160"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="159" t="s">
         <v>362</v>
       </c>
-      <c r="C56" s="166"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="165" t="s">
-        <v>363</v>
-      </c>
-      <c r="C57" s="166"/>
+      <c r="C57" s="160"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="159" t="s">
+        <v>371</v>
+      </c>
+      <c r="C58" s="160"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="159" t="s">
         <v>372</v>
       </c>
-      <c r="C58" s="166"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B59" s="165" t="s">
+      <c r="C59" s="160"/>
+    </row>
+    <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="161" t="s">
         <v>373</v>
       </c>
-      <c r="C59" s="166"/>
-    </row>
-    <row r="60" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="155" t="s">
+      <c r="C60" s="162"/>
+    </row>
+    <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B61" s="161" t="s">
         <v>374</v>
       </c>
-      <c r="C60" s="156"/>
-    </row>
-    <row r="61" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="155" t="s">
-        <v>375</v>
-      </c>
-      <c r="C61" s="156"/>
+      <c r="C61" s="162"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="163" t="s">
+      <c r="B62" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="164"/>
+      <c r="C62" s="158"/>
     </row>
     <row r="63" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="165" t="s">
+      <c r="B63" s="159" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="166"/>
+      <c r="C63" s="160"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="167" t="s">
+        <v>368</v>
+      </c>
+      <c r="C64" s="168"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="161" t="s">
         <v>369</v>
       </c>
-      <c r="C64" s="168"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="155" t="s">
+      <c r="C65" s="162"/>
+    </row>
+    <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="169" t="s">
         <v>370</v>
       </c>
-      <c r="C65" s="156"/>
-    </row>
-    <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="157" t="s">
-        <v>371</v>
-      </c>
-      <c r="C66" s="158"/>
+      <c r="C66" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
@@ -5913,46 +5956,12 @@
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5965,10 +5974,10 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
@@ -6009,10 +6018,10 @@
         <v>172</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6026,10 +6035,10 @@
         <v>179</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6043,10 +6052,10 @@
         <v>179</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6060,10 +6069,10 @@
         <v>181</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6077,10 +6086,10 @@
         <v>181</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6094,10 +6103,10 @@
         <v>181</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6111,10 +6120,10 @@
         <v>136</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6125,13 +6134,13 @@
         <v>184</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>185</v>
+        <v>633</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>620</v>
+        <v>634</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6142,13 +6151,13 @@
         <v>184</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>185</v>
+        <v>633</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>545</v>
+        <v>635</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6156,16 +6165,16 @@
         <v>133</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6173,16 +6182,16 @@
         <v>134</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -6190,118 +6199,118 @@
         <v>135</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B15" s="51" t="s">
         <v>279</v>
-      </c>
-      <c r="B15" s="51" t="s">
-        <v>280</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>179</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>528</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>181</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
+        <v>627</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>630</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>632</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -6333,12 +6342,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>57</v>
@@ -6346,42 +6355,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6392,55 +6401,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6451,88 +6460,88 @@
         <v>12</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C20" s="30" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>237</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>239</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C28" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="C28" s="37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C29" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6540,56 +6549,56 @@
         <v>165</v>
       </c>
       <c r="C30" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="35" t="s">
+        <v>245</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>246</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="C32" s="37" t="s">
         <v>248</v>
-      </c>
-      <c r="C32" s="37" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C37" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6597,56 +6606,56 @@
         <v>165</v>
       </c>
       <c r="C38" s="37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B39" s="35" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B40" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C40" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="42" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B43" s="35" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C43" s="37" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="35" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C44" s="37" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="C45" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6654,29 +6663,29 @@
         <v>165</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="171" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C47" s="38" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="172"/>
       <c r="C48" s="37" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C49" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6685,12 +6694,12 @@
         <v>12</v>
       </c>
       <c r="C51" s="39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C52" s="40" t="s">
         <v>57</v>
@@ -6698,42 +6707,42 @@
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C53" s="41" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C54" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C55" s="41" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C56" s="41" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6745,12 +6754,12 @@
         <v>12</v>
       </c>
       <c r="C59" s="39" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B60" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C60" s="40" t="s">
         <v>57</v>
@@ -6758,42 +6767,42 @@
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B61" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C61" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C62" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C63" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C64" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -6805,12 +6814,12 @@
         <v>12</v>
       </c>
       <c r="C67" s="39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C68" s="40" t="s">
         <v>57</v>
@@ -6818,42 +6827,42 @@
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B69" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C69" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B70" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C71" s="41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C72" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C73" s="42" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -6885,12 +6894,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>110</v>
@@ -6898,42 +6907,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -6942,12 +6951,12 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>110</v>
@@ -6955,42 +6964,42 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -7019,12 +7028,12 @@
         <v>12</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C3" s="29" t="s">
         <v>110</v>
@@ -7032,42 +7041,42 @@
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -7078,55 +7087,55 @@
         <v>12</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" s="26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="24" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="24" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="24" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="24" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -7284,29 +7293,29 @@
         <v>147</v>
       </c>
       <c r="C12" s="48" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -7331,50 +7340,50 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -7408,76 +7417,76 @@
         <v>30</v>
       </c>
       <c r="C1" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="D1" s="92" t="s">
         <v>503</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="92" t="s">
         <v>504</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="92" t="s">
         <v>505</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="G1" s="92" t="s">
         <v>506</v>
       </c>
-      <c r="G1" s="92" t="s">
+      <c r="H1" s="92" t="s">
         <v>507</v>
       </c>
-      <c r="H1" s="92" t="s">
+      <c r="I1" s="92" t="s">
         <v>508</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="92" t="s">
         <v>509</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="K1" s="92" t="s">
         <v>510</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="L1" s="92" t="s">
         <v>511</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="M1" s="92" t="s">
         <v>512</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="N1" s="92" t="s">
         <v>513</v>
       </c>
-      <c r="N1" s="92" t="s">
+      <c r="O1" s="92" t="s">
         <v>514</v>
       </c>
-      <c r="O1" s="92" t="s">
+      <c r="P1" s="92" t="s">
         <v>515</v>
       </c>
-      <c r="P1" s="92" t="s">
+      <c r="Q1" s="92" t="s">
         <v>516</v>
       </c>
-      <c r="Q1" s="92" t="s">
+      <c r="R1" s="92" t="s">
         <v>517</v>
       </c>
-      <c r="R1" s="92" t="s">
+      <c r="S1" s="92" t="s">
         <v>518</v>
       </c>
-      <c r="S1" s="92" t="s">
+      <c r="T1" s="92" t="s">
         <v>519</v>
       </c>
-      <c r="T1" s="92" t="s">
+      <c r="U1" s="92" t="s">
         <v>520</v>
       </c>
-      <c r="U1" s="92" t="s">
+      <c r="V1" s="92" t="s">
         <v>521</v>
       </c>
-      <c r="V1" s="92" t="s">
+      <c r="W1" s="92" t="s">
         <v>522</v>
       </c>
-      <c r="W1" s="92" t="s">
+      <c r="X1" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="X1" s="92" t="s">
+      <c r="Y1" s="92" t="s">
         <v>524</v>
       </c>
-      <c r="Y1" s="92" t="s">
-        <v>525</v>
-      </c>
       <c r="Z1" s="92" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AA1" s="92" t="s">
         <v>17</v>
@@ -7567,227 +7576,227 @@
         <v>48</v>
       </c>
       <c r="BD1" s="92" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BE1" s="92" t="s">
+        <v>334</v>
+      </c>
+      <c r="BF1" s="92" t="s">
         <v>335</v>
       </c>
-      <c r="BF1" s="92" t="s">
+      <c r="BG1" s="92" t="s">
         <v>336</v>
       </c>
-      <c r="BG1" s="92" t="s">
+      <c r="BH1" s="92" t="s">
         <v>337</v>
       </c>
-      <c r="BH1" s="92" t="s">
+      <c r="BI1" s="92" t="s">
         <v>338</v>
       </c>
-      <c r="BI1" s="92" t="s">
+      <c r="BJ1" s="92" t="s">
         <v>339</v>
       </c>
-      <c r="BJ1" s="92" t="s">
+      <c r="BK1" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="BK1" s="92" t="s">
+      <c r="BL1" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="BL1" s="92" t="s">
+      <c r="BM1" s="92" t="s">
         <v>342</v>
-      </c>
-      <c r="BM1" s="92" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="2" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B2" s="95" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="C2" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F2" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="O2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Q2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="R2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="S2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="V2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="W2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="X2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Y2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Z2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA2" s="97"/>
       <c r="AB2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AC2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AD2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AE2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AG2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AH2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AI2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AJ2" s="97"/>
       <c r="AK2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AL2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AN2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AO2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AP2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AQ2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AR2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AS2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AT2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AU2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AV2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AW2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AX2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AY2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AZ2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BA2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BB2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BC2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BD2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BE2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BF2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BG2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BH2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BI2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BJ2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BK2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BL2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BM2" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BN2">
         <f t="shared" ref="BN2:BN7" si="0">COUNTA(B2:BM2)</f>
@@ -7796,7 +7805,7 @@
     </row>
     <row r="3" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B3" s="95"/>
       <c r="C3" s="96"/>
@@ -7837,7 +7846,7 @@
       <c r="AL3" s="97"/>
       <c r="AM3" s="97"/>
       <c r="AN3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AO3" s="97"/>
       <c r="AP3" s="97"/>
@@ -7845,54 +7854,54 @@
       <c r="AR3" s="97"/>
       <c r="AS3" s="97"/>
       <c r="AT3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AU3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AV3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AW3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AX3" s="97"/>
       <c r="AY3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AZ3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BA3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BB3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BC3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BD3" s="97"/>
       <c r="BE3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BF3" s="97"/>
       <c r="BG3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BH3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BI3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BJ3" s="97"/>
       <c r="BK3" s="97"/>
       <c r="BL3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BM3" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="BN3">
         <f t="shared" si="0"/>
@@ -7901,66 +7910,66 @@
     </row>
     <row r="4" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>622</v>
       </c>
-      <c r="B4" s="95" t="s">
-        <v>625</v>
-      </c>
       <c r="C4" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D4" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E4" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F4" s="96" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I4" s="97"/>
       <c r="J4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="K4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="L4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M4" s="97"/>
       <c r="N4" s="97"/>
       <c r="O4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="P4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Q4" s="97"/>
       <c r="R4" s="97"/>
       <c r="S4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="T4" s="97"/>
       <c r="U4" s="97"/>
       <c r="V4" s="97"/>
       <c r="W4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="X4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Y4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="Z4" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AA4" s="97"/>
       <c r="AB4" s="97"/>
@@ -8008,7 +8017,7 @@
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B5" s="95"/>
       <c r="C5" s="96"/>
@@ -8016,13 +8025,13 @@
       <c r="E5" s="96"/>
       <c r="F5" s="96"/>
       <c r="G5" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="H5" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="I5" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="J5" s="97"/>
       <c r="K5" s="97"/>
@@ -8087,7 +8096,7 @@
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B6" s="95"/>
       <c r="C6" s="96"/>
@@ -8108,10 +8117,10 @@
       <c r="R6" s="97"/>
       <c r="S6" s="97"/>
       <c r="T6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="U6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="V6" s="97"/>
       <c r="W6" s="97"/>
@@ -8119,37 +8128,37 @@
       <c r="Y6" s="97"/>
       <c r="Z6" s="97"/>
       <c r="AA6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AB6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AC6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AD6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AE6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AF6" s="97"/>
       <c r="AG6" s="97"/>
       <c r="AH6" s="97"/>
       <c r="AI6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AJ6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AK6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AL6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AM6" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AN6" s="97"/>
       <c r="AO6" s="97"/>
@@ -8184,7 +8193,7 @@
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B7" s="95"/>
       <c r="C7" s="96"/>
@@ -8226,13 +8235,13 @@
       <c r="AM7" s="97"/>
       <c r="AN7" s="97"/>
       <c r="AO7" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AP7" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AQ7" s="97" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="AR7" s="97"/>
       <c r="AS7" s="97"/>
@@ -9183,17 +9192,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
-        <v>552</v>
-      </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="115"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="A2" s="110" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="111"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="57"/>
@@ -9201,164 +9210,164 @@
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
-        <v>563</v>
-      </c>
-      <c r="B4" s="143" t="s">
-        <v>581</v>
-      </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
+        <v>561</v>
+      </c>
+      <c r="B4" s="112" t="s">
+        <v>579</v>
+      </c>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="114"/>
       <c r="F4" s="66" t="s">
-        <v>564</v>
-      </c>
-      <c r="G4" s="146" t="s">
-        <v>559</v>
-      </c>
-      <c r="H4" s="147"/>
-      <c r="I4" s="148"/>
+        <v>562</v>
+      </c>
+      <c r="G4" s="115" t="s">
+        <v>557</v>
+      </c>
+      <c r="H4" s="116"/>
+      <c r="I4" s="117"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="67" t="s">
+        <v>563</v>
+      </c>
+      <c r="B5" s="104" t="s">
+        <v>564</v>
+      </c>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="106" t="s">
         <v>565</v>
       </c>
-      <c r="B5" s="137" t="s">
-        <v>566</v>
-      </c>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139" t="s">
-        <v>567</v>
-      </c>
       <c r="F5" s="68" t="s">
-        <v>567</v>
-      </c>
-      <c r="G5" s="149" t="s">
-        <v>582</v>
-      </c>
-      <c r="H5" s="141"/>
-      <c r="I5" s="142"/>
+        <v>565</v>
+      </c>
+      <c r="G5" s="118" t="s">
+        <v>580</v>
+      </c>
+      <c r="H5" s="108"/>
+      <c r="I5" s="109"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="67" t="s">
-        <v>568</v>
-      </c>
-      <c r="B6" s="137" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="139"/>
+        <v>566</v>
+      </c>
+      <c r="B6" s="104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="106"/>
       <c r="F6" s="68" t="s">
-        <v>569</v>
-      </c>
-      <c r="G6" s="140" t="s">
-        <v>560</v>
-      </c>
-      <c r="H6" s="141"/>
-      <c r="I6" s="142"/>
+        <v>567</v>
+      </c>
+      <c r="G6" s="107" t="s">
+        <v>558</v>
+      </c>
+      <c r="H6" s="108"/>
+      <c r="I6" s="109"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
-        <v>571</v>
-      </c>
-      <c r="B7" s="135" t="s">
-        <v>583</v>
-      </c>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
-      <c r="I7" s="136"/>
+        <v>569</v>
+      </c>
+      <c r="B7" s="124" t="s">
+        <v>581</v>
+      </c>
+      <c r="C7" s="124"/>
+      <c r="D7" s="124"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
+      <c r="H7" s="124"/>
+      <c r="I7" s="125"/>
     </row>
     <row r="10" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="114" t="s">
-        <v>572</v>
-      </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="115"/>
+      <c r="A10" s="110" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" s="111"/>
+      <c r="C10" s="111"/>
+      <c r="D10" s="111"/>
+      <c r="E10" s="111"/>
+      <c r="F10" s="111"/>
+      <c r="G10" s="111"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="111"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="57"/>
       <c r="B11" s="57"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="130" t="s">
+      <c r="A12" s="119" t="s">
+        <v>571</v>
+      </c>
+      <c r="B12" s="120"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="122" t="s">
+        <v>572</v>
+      </c>
+      <c r="E12" s="120"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="122" t="s">
         <v>573</v>
       </c>
-      <c r="B12" s="131"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="133" t="s">
+      <c r="H12" s="120"/>
+      <c r="I12" s="123"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="137" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="134"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="133" t="s">
+        <v>584</v>
+      </c>
+      <c r="E13" s="134"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="133" t="s">
+        <v>583</v>
+      </c>
+      <c r="H13" s="134"/>
+      <c r="I13" s="135"/>
+    </row>
+    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="110" t="s">
         <v>574</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="133" t="s">
-        <v>575</v>
-      </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="134"/>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="104" t="s">
-        <v>586</v>
-      </c>
-      <c r="E13" s="105"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="104" t="s">
-        <v>585</v>
-      </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
-    </row>
-    <row r="16" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="114" t="s">
-        <v>576</v>
-      </c>
-      <c r="B16" s="115"/>
-      <c r="C16" s="115"/>
-      <c r="D16" s="115"/>
-      <c r="E16" s="115"/>
-      <c r="F16" s="115"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="115"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="72" t="s">
+        <v>575</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>568</v>
+      </c>
+      <c r="C18" s="141" t="s">
+        <v>576</v>
+      </c>
+      <c r="D18" s="142"/>
+      <c r="E18" s="143"/>
+      <c r="F18" s="74" t="s">
+        <v>571</v>
+      </c>
+      <c r="G18" s="144" t="s">
         <v>577</v>
       </c>
-      <c r="B18" s="73" t="s">
-        <v>570</v>
-      </c>
-      <c r="C18" s="116" t="s">
+      <c r="H18" s="144"/>
+      <c r="I18" s="75" t="s">
         <v>578</v>
-      </c>
-      <c r="D18" s="117"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="74" t="s">
-        <v>573</v>
-      </c>
-      <c r="G18" s="119" t="s">
-        <v>579</v>
-      </c>
-      <c r="H18" s="119"/>
-      <c r="I18" s="75" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9368,42 +9377,42 @@
       <c r="B19" s="77">
         <v>42533</v>
       </c>
-      <c r="C19" s="120" t="s">
+      <c r="C19" s="145" t="s">
+        <v>585</v>
+      </c>
+      <c r="D19" s="146"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="79" t="s">
+        <v>586</v>
+      </c>
+      <c r="G19" s="148" t="s">
         <v>587</v>
       </c>
-      <c r="D19" s="121"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="79" t="s">
+      <c r="H19" s="149"/>
+      <c r="I19" s="78" t="s">
         <v>588</v>
-      </c>
-      <c r="G19" s="123" t="s">
-        <v>589</v>
-      </c>
-      <c r="H19" s="124"/>
-      <c r="I19" s="78" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="76"/>
       <c r="B20" s="77"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="122"/>
+      <c r="C20" s="145"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="147"/>
       <c r="F20" s="79"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="113"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="127"/>
       <c r="I20" s="78"/>
     </row>
     <row r="21" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="76"/>
       <c r="B21" s="77"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="140"/>
       <c r="F21" s="79"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="113"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="127"/>
       <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9413,8 +9422,8 @@
       <c r="D22" s="81"/>
       <c r="E22" s="82"/>
       <c r="F22" s="83"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="113"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="127"/>
       <c r="I22" s="84"/>
     </row>
     <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9424,8 +9433,8 @@
       <c r="D23" s="81"/>
       <c r="E23" s="82"/>
       <c r="F23" s="83"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="113"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="127"/>
       <c r="I23" s="84"/>
     </row>
     <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
@@ -9435,40 +9444,23 @@
       <c r="D24" s="81"/>
       <c r="E24" s="82"/>
       <c r="F24" s="83"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="127"/>
       <c r="I24" s="84"/>
     </row>
     <row r="25" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="85"/>
       <c r="B25" s="86"/>
-      <c r="C25" s="125"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="127"/>
+      <c r="C25" s="128"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="130"/>
       <c r="F25" s="87"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="129"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
       <c r="I25" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="G25:H25"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="A13:C13"/>
@@ -9481,6 +9473,23 @@
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="G5:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -9520,15 +9529,15 @@
         <v>163</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B4" s="19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
@@ -9536,7 +9545,7 @@
         <v>164</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -9554,15 +9563,15 @@
         <v>169</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="2:3" ht="45" x14ac:dyDescent="0.3">
       <c r="B9" s="19" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
@@ -9573,42 +9582,42 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="30" x14ac:dyDescent="0.3">
       <c r="B15" s="19" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
@@ -9623,34 +9632,34 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="19" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="19" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="19" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="19" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
@@ -9695,7 +9704,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -9715,16 +9724,16 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9733,16 +9742,16 @@
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9751,16 +9760,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>448</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9769,14 +9778,14 @@
         <v>24</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9785,14 +9794,14 @@
         <v>24</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9801,16 +9810,16 @@
         <v>24</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9819,16 +9828,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9837,16 +9846,16 @@
         <v>24</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9855,16 +9864,16 @@
         <v>24</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>455</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9873,16 +9882,16 @@
         <v>24</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>487</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9891,16 +9900,16 @@
         <v>24</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9909,16 +9918,16 @@
         <v>25</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>460</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9927,14 +9936,14 @@
         <v>25</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9943,16 +9952,16 @@
         <v>25</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>478</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9961,13 +9970,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>31</v>
@@ -9979,16 +9988,16 @@
         <v>26</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -9997,30 +10006,30 @@
         <v>26</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -10029,10 +10038,10 @@
         <v>27</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -10045,13 +10054,13 @@
         <v>27</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>490</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>491</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>31</v>
@@ -10063,10 +10072,10 @@
         <v>27</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="8" t="s">
@@ -10079,10 +10088,10 @@
         <v>27</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="8" t="s">
@@ -10095,10 +10104,10 @@
         <v>28</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="8" t="s">
@@ -10111,10 +10120,10 @@
         <v>28</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="8" t="s">
@@ -10127,10 +10136,10 @@
         <v>28</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="8" t="s">
@@ -10143,13 +10152,13 @@
         <v>28</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E27" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>31</v>
@@ -10162,7 +10171,7 @@
       </c>
       <c r="C28" s="52"/>
       <c r="D28" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>33</v>
@@ -10178,7 +10187,7 @@
       </c>
       <c r="C29" s="52"/>
       <c r="D29" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E29" s="9" t="s">
         <v>33</v>
@@ -10194,7 +10203,7 @@
       </c>
       <c r="C30" s="52"/>
       <c r="D30" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="8" t="s">
@@ -10208,7 +10217,7 @@
       </c>
       <c r="C31" s="52"/>
       <c r="D31" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="8" t="s">
@@ -10222,7 +10231,7 @@
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="8" t="s">
@@ -10236,10 +10245,10 @@
       </c>
       <c r="C33" s="52"/>
       <c r="D33" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E33" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>31</v>
@@ -10252,10 +10261,10 @@
       </c>
       <c r="C34" s="52"/>
       <c r="D34" s="46" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E34" s="23" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>31</v>
@@ -10268,10 +10277,10 @@
       </c>
       <c r="C35" s="52"/>
       <c r="D35" s="44" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E35" s="23" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>31</v>
@@ -10284,10 +10293,10 @@
       </c>
       <c r="C36" s="52"/>
       <c r="D36" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E36" s="23" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F36" s="8" t="s">
         <v>31</v>
@@ -10329,7 +10338,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -10349,13 +10358,13 @@
         <v>24</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>497</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>20</v>
@@ -10363,19 +10372,19 @@
     </row>
     <row r="3" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>20</v>
@@ -10383,19 +10392,19 @@
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>20</v>
@@ -10403,19 +10412,19 @@
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="54" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B5" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D5" s="44" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F5" s="54" t="s">
         <v>20</v>
@@ -10423,19 +10432,19 @@
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="54" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B6" s="54" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D6" s="44" t="s">
+        <v>498</v>
+      </c>
+      <c r="E6" s="56" t="s">
         <v>499</v>
-      </c>
-      <c r="E6" s="56" t="s">
-        <v>500</v>
       </c>
       <c r="F6" s="54" t="s">
         <v>18</v>
@@ -10443,19 +10452,19 @@
     </row>
     <row r="7" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>459</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>460</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -10463,16 +10472,16 @@
     </row>
     <row r="8" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="4" t="s">
@@ -10481,19 +10490,19 @@
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -10501,19 +10510,19 @@
     </row>
     <row r="10" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>477</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>478</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -10521,19 +10530,19 @@
     </row>
     <row r="11" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -10541,19 +10550,19 @@
     </row>
     <row r="12" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>16</v>
@@ -10561,16 +10570,16 @@
     </row>
     <row r="13" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="53" t="s">
@@ -10579,16 +10588,16 @@
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="4" t="s">
@@ -10597,16 +10606,16 @@
     </row>
     <row r="15" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="8" t="s">
@@ -10615,19 +10624,19 @@
     </row>
     <row r="16" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="23" t="s">
         <v>490</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>491</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>20</v>
@@ -10635,16 +10644,16 @@
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="8" t="s">
@@ -10653,16 +10662,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="8" t="s">
@@ -10671,16 +10680,16 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="8" t="s">
@@ -10689,16 +10698,16 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="50" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="8" t="s">
@@ -10707,16 +10716,16 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="8" t="s">
@@ -10725,19 +10734,19 @@
     </row>
     <row r="22" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>16</v>
@@ -10745,16 +10754,16 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>33</v>
@@ -10765,16 +10774,16 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>33</v>
@@ -10785,19 +10794,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>31</v>
@@ -10805,19 +10814,19 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>31</v>
@@ -10859,7 +10868,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -10879,10 +10888,10 @@
         <v>15</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>170</v>
@@ -10899,16 +10908,16 @@
         <v>15</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -10919,14 +10928,14 @@
         <v>15</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -10937,13 +10946,13 @@
         <v>15</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>20</v>
@@ -10957,13 +10966,13 @@
         <v>15</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -10977,13 +10986,13 @@
         <v>15</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>16</v>
@@ -10997,13 +11006,13 @@
         <v>15</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -11017,13 +11026,13 @@
         <v>15</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>16</v>
@@ -11037,13 +11046,13 @@
         <v>15</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>16</v>
@@ -11057,10 +11066,10 @@
         <v>15</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="4" t="s">
@@ -11075,13 +11084,13 @@
         <v>15</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>407</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>408</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -11095,16 +11104,16 @@
         <v>21</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -11115,13 +11124,13 @@
         <v>21</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>20</v>
@@ -11163,7 +11172,7 @@
         <v>13</v>
       </c>
       <c r="C1" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>23</v>
@@ -11183,13 +11192,13 @@
         <v>50</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>16</v>
@@ -11203,13 +11212,13 @@
         <v>50</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>18</v>
@@ -11223,13 +11232,13 @@
         <v>50</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -11243,16 +11252,16 @@
         <v>50</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -11263,10 +11272,10 @@
         <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="4" t="s">
@@ -11281,10 +11290,10 @@
         <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>51</v>
@@ -11301,13 +11310,13 @@
         <v>50</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>20</v>
@@ -11321,13 +11330,13 @@
         <v>50</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -11341,13 +11350,13 @@
         <v>50</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>20</v>
@@ -11361,13 +11370,13 @@
         <v>50</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -11381,13 +11390,13 @@
         <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>20</v>
@@ -11401,13 +11410,13 @@
         <v>50</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>20</v>
@@ -11421,10 +11430,10 @@
         <v>50</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="4" t="s">
@@ -11439,13 +11448,13 @@
         <v>50</v>
       </c>
       <c r="C15" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>304</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>16</v>
@@ -11459,16 +11468,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -11479,10 +11488,10 @@
         <v>50</v>
       </c>
       <c r="C17" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="4" t="s">
@@ -11491,16 +11500,16 @@
     </row>
     <row r="18" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="4" t="s">
@@ -11509,19 +11518,19 @@
     </row>
     <row r="19" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C19" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>20</v>
@@ -11529,19 +11538,19 @@
     </row>
     <row r="20" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>16</v>
@@ -11549,19 +11558,19 @@
     </row>
     <row r="21" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C21" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="C21" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F21" s="4" t="s">
         <v>16</v>
@@ -11569,19 +11578,19 @@
     </row>
     <row r="22" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C22" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>20</v>
@@ -11589,19 +11598,19 @@
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C23" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E23" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="F23" s="4" t="s">
         <v>20</v>
@@ -11609,19 +11618,19 @@
     </row>
     <row r="24" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>327</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>328</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>16</v>
@@ -11629,19 +11638,19 @@
     </row>
     <row r="25" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>331</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>20</v>
@@ -11649,19 +11658,19 @@
     </row>
     <row r="26" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C26" s="50" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>20</v>
@@ -11669,19 +11678,19 @@
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C27" s="50" t="s">
         <v>343</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>344</v>
-      </c>
       <c r="D27" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>20</v>
@@ -11735,100 +11744,100 @@
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="163" t="s">
+      <c r="B3" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="164"/>
+      <c r="C3" s="158"/>
     </row>
     <row r="4" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="169" t="s">
+      <c r="B4" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="170"/>
+      <c r="C4" s="156"/>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="163" t="s">
+      <c r="B5" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="164"/>
+      <c r="C5" s="158"/>
     </row>
     <row r="6" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="166"/>
+      <c r="C6" s="160"/>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="163" t="s">
+      <c r="B7" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="164"/>
+      <c r="C7" s="158"/>
     </row>
     <row r="8" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="169" t="s">
+      <c r="B8" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="170"/>
+      <c r="C8" s="156"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="163" t="s">
+      <c r="B9" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="164"/>
+      <c r="C9" s="158"/>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C10" s="166"/>
+      <c r="C10" s="160"/>
     </row>
     <row r="11" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="166"/>
+      <c r="C11" s="160"/>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="159" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="166"/>
+      <c r="C12" s="160"/>
     </row>
     <row r="13" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="165" t="s">
+      <c r="B13" s="159" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="166"/>
+      <c r="C13" s="160"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="163" t="s">
+      <c r="B14" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="164"/>
+      <c r="C14" s="158"/>
     </row>
     <row r="15" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="169" t="s">
+      <c r="B15" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C15" s="170"/>
+      <c r="C15" s="156"/>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" s="163" t="s">
+      <c r="B16" s="157" t="s">
+        <v>196</v>
+      </c>
+      <c r="C16" s="158"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="159" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="164"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B17" s="165" t="s">
+      <c r="C17" s="160"/>
+    </row>
+    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="155" t="s">
         <v>198</v>
       </c>
-      <c r="C17" s="166"/>
-    </row>
-    <row r="18" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="169" t="s">
-        <v>199</v>
-      </c>
-      <c r="C18" s="170"/>
+      <c r="C18" s="156"/>
     </row>
     <row r="19" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11840,82 +11849,82 @@
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B21" s="163" t="s">
+      <c r="B21" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C21" s="164"/>
+      <c r="C21" s="158"/>
     </row>
     <row r="22" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="169" t="s">
+      <c r="B22" s="155" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="170"/>
+      <c r="C22" s="156"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B23" s="163" t="s">
+      <c r="B23" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="164"/>
+      <c r="C23" s="158"/>
     </row>
     <row r="24" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="165" t="s">
+      <c r="B24" s="159" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="166"/>
+      <c r="C24" s="160"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="163" t="s">
+      <c r="B25" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="164"/>
+      <c r="C25" s="158"/>
     </row>
     <row r="26" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="169" t="s">
+      <c r="B26" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="170"/>
+      <c r="C26" s="156"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="163" t="s">
+      <c r="B27" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="164"/>
+      <c r="C27" s="158"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="165" t="s">
+      <c r="B28" s="159" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="166"/>
+      <c r="C28" s="160"/>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="165" t="s">
+      <c r="B29" s="159" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="166"/>
+      <c r="C29" s="160"/>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="166"/>
+      <c r="C30" s="160"/>
     </row>
     <row r="31" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="165" t="s">
-        <v>536</v>
-      </c>
-      <c r="C31" s="166"/>
+      <c r="B31" s="159" t="s">
+        <v>535</v>
+      </c>
+      <c r="C31" s="160"/>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="163" t="s">
+      <c r="B32" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="164"/>
+      <c r="C32" s="158"/>
     </row>
     <row r="33" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="169" t="s">
+      <c r="B33" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="170"/>
+      <c r="C33" s="156"/>
     </row>
     <row r="34" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -11927,82 +11936,82 @@
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" s="163" t="s">
+      <c r="B36" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C36" s="164"/>
+      <c r="C36" s="158"/>
     </row>
     <row r="37" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="169" t="s">
+      <c r="B37" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="170"/>
+      <c r="C37" s="156"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" s="163" t="s">
+      <c r="B38" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="164"/>
+      <c r="C38" s="158"/>
     </row>
     <row r="39" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="165" t="s">
+      <c r="B39" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C39" s="166"/>
+      <c r="C39" s="160"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B40" s="163" t="s">
+      <c r="B40" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="164"/>
+      <c r="C40" s="158"/>
     </row>
     <row r="41" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="169" t="s">
+      <c r="B41" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C41" s="170"/>
+      <c r="C41" s="156"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="163" t="s">
+      <c r="B42" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="164"/>
+      <c r="C42" s="158"/>
     </row>
     <row r="43" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="165" t="s">
+      <c r="B43" s="159" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="166"/>
+      <c r="C43" s="160"/>
     </row>
     <row r="44" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="165" t="s">
+      <c r="B44" s="159" t="s">
         <v>78</v>
       </c>
-      <c r="C44" s="166"/>
+      <c r="C44" s="160"/>
     </row>
     <row r="45" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="165" t="s">
+      <c r="B45" s="159" t="s">
         <v>79</v>
       </c>
-      <c r="C45" s="166"/>
+      <c r="C45" s="160"/>
     </row>
     <row r="46" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="165" t="s">
-        <v>195</v>
-      </c>
-      <c r="C46" s="166"/>
+      <c r="B46" s="159" t="s">
+        <v>194</v>
+      </c>
+      <c r="C46" s="160"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="163" t="s">
+      <c r="B47" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="164"/>
+      <c r="C47" s="158"/>
     </row>
     <row r="48" spans="2:3" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="169" t="s">
+      <c r="B48" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C48" s="170"/>
+      <c r="C48" s="156"/>
     </row>
     <row r="49" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="50" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12014,100 +12023,100 @@
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="163" t="s">
+      <c r="B51" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C51" s="164"/>
+      <c r="C51" s="158"/>
     </row>
     <row r="52" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="169" t="s">
+      <c r="B52" s="155" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="170"/>
+      <c r="C52" s="156"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="163" t="s">
+      <c r="B53" s="157" t="s">
         <v>53</v>
       </c>
-      <c r="C53" s="164"/>
+      <c r="C53" s="158"/>
     </row>
     <row r="54" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="165" t="s">
+      <c r="B54" s="159" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="166"/>
+      <c r="C54" s="160"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B55" s="163" t="s">
+      <c r="B55" s="157" t="s">
         <v>54</v>
       </c>
-      <c r="C55" s="164"/>
+      <c r="C55" s="158"/>
     </row>
     <row r="56" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="169" t="s">
+      <c r="B56" s="155" t="s">
         <v>61</v>
       </c>
-      <c r="C56" s="170"/>
+      <c r="C56" s="156"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B57" s="163" t="s">
+      <c r="B57" s="157" t="s">
         <v>55</v>
       </c>
-      <c r="C57" s="164"/>
+      <c r="C57" s="158"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B58" s="165" t="s">
+      <c r="B58" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="166"/>
+      <c r="C58" s="160"/>
     </row>
     <row r="59" spans="2:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="165" t="s">
+      <c r="B59" s="159" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="166"/>
+      <c r="C59" s="160"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="165" t="s">
+      <c r="B60" s="159" t="s">
         <v>84</v>
       </c>
-      <c r="C60" s="166"/>
+      <c r="C60" s="160"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="165" t="s">
+      <c r="B61" s="159" t="s">
         <v>85</v>
       </c>
-      <c r="C61" s="166"/>
+      <c r="C61" s="160"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B62" s="165" t="s">
+      <c r="B62" s="159" t="s">
         <v>86</v>
       </c>
-      <c r="C62" s="166"/>
+      <c r="C62" s="160"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B63" s="165" t="s">
-        <v>196</v>
-      </c>
-      <c r="C63" s="166"/>
+      <c r="B63" s="159" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" s="160"/>
     </row>
     <row r="64" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="165" t="s">
+      <c r="B64" s="159" t="s">
         <v>87</v>
       </c>
-      <c r="C64" s="166"/>
+      <c r="C64" s="160"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="163" t="s">
+      <c r="B65" s="157" t="s">
         <v>56</v>
       </c>
-      <c r="C65" s="164"/>
+      <c r="C65" s="158"/>
     </row>
     <row r="66" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="169" t="s">
+      <c r="B66" s="155" t="s">
         <v>66</v>
       </c>
-      <c r="C66" s="170"/>
+      <c r="C66" s="156"/>
     </row>
     <row r="67" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="68" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12119,16 +12128,16 @@
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="163" t="s">
+      <c r="B69" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="164"/>
+      <c r="C69" s="158"/>
     </row>
     <row r="70" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="165" t="s">
+      <c r="B70" s="159" t="s">
         <v>90</v>
       </c>
-      <c r="C70" s="166"/>
+      <c r="C70" s="160"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="167" t="s">
@@ -12137,100 +12146,100 @@
       <c r="C71" s="168"/>
     </row>
     <row r="72" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="155" t="s">
+      <c r="B72" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C72" s="156"/>
+      <c r="C72" s="162"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B73" s="159" t="s">
+      <c r="B73" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C73" s="160"/>
+      <c r="C73" s="164"/>
     </row>
     <row r="74" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="161" t="s">
+      <c r="B74" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="C74" s="162"/>
+      <c r="C74" s="166"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B75" s="159" t="s">
+      <c r="B75" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C75" s="160"/>
+      <c r="C75" s="164"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B76" s="155" t="s">
+      <c r="B76" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="C76" s="156"/>
+      <c r="C76" s="162"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B77" s="155" t="s">
+      <c r="B77" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="C77" s="156"/>
+      <c r="C77" s="162"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B78" s="155" t="s">
+      <c r="B78" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="C78" s="156"/>
+      <c r="C78" s="162"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B79" s="155" t="s">
+      <c r="B79" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="C79" s="156"/>
+      <c r="C79" s="162"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="155" t="s">
+      <c r="B80" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="C80" s="156"/>
+      <c r="C80" s="162"/>
     </row>
     <row r="81" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="155" t="s">
+      <c r="B81" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C81" s="156"/>
+      <c r="C81" s="162"/>
     </row>
     <row r="82" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="155" t="s">
+      <c r="B82" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="156"/>
+      <c r="C82" s="162"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B83" s="159" t="s">
+      <c r="B83" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C83" s="160"/>
+      <c r="C83" s="164"/>
     </row>
     <row r="84" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="161" t="s">
+      <c r="B84" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C84" s="162"/>
+      <c r="C84" s="166"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B85" s="159" t="s">
+      <c r="B85" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="C85" s="164"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="161" t="s">
         <v>200</v>
       </c>
-      <c r="C85" s="160"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B86" s="155" t="s">
+      <c r="C86" s="162"/>
+    </row>
+    <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B87" s="169" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="156"/>
-    </row>
-    <row r="87" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="157" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="158"/>
+      <c r="C87" s="170"/>
     </row>
     <row r="88" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="89" spans="2:3" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12242,16 +12251,16 @@
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B90" s="163" t="s">
+      <c r="B90" s="157" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="164"/>
+      <c r="C90" s="158"/>
     </row>
     <row r="91" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="165" t="s">
+      <c r="B91" s="159" t="s">
         <v>98</v>
       </c>
-      <c r="C91" s="166"/>
+      <c r="C91" s="160"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B92" s="167" t="s">
@@ -12260,176 +12269,110 @@
       <c r="C92" s="168"/>
     </row>
     <row r="93" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="155" t="s">
+      <c r="B93" s="161" t="s">
         <v>57</v>
       </c>
-      <c r="C93" s="156"/>
+      <c r="C93" s="162"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B94" s="159" t="s">
+      <c r="B94" s="163" t="s">
         <v>54</v>
       </c>
-      <c r="C94" s="160"/>
+      <c r="C94" s="164"/>
     </row>
     <row r="95" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="161" t="s">
+      <c r="B95" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="C95" s="162"/>
+      <c r="C95" s="166"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B96" s="159" t="s">
+      <c r="B96" s="163" t="s">
         <v>55</v>
       </c>
-      <c r="C96" s="160"/>
+      <c r="C96" s="164"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B97" s="155" t="s">
+      <c r="B97" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="C97" s="156"/>
+      <c r="C97" s="162"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B98" s="155" t="s">
+      <c r="B98" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="C98" s="156"/>
+      <c r="C98" s="162"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B99" s="155" t="s">
+      <c r="B99" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="C99" s="156"/>
+      <c r="C99" s="162"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B100" s="155" t="s">
+      <c r="B100" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="C100" s="156"/>
+      <c r="C100" s="162"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B101" s="155" t="s">
+      <c r="B101" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="156"/>
+      <c r="C101" s="162"/>
     </row>
     <row r="102" spans="2:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="155" t="s">
+      <c r="B102" s="161" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="156"/>
+      <c r="C102" s="162"/>
     </row>
     <row r="103" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="155" t="s">
+      <c r="B103" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="C103" s="156"/>
+      <c r="C103" s="162"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B104" s="159" t="s">
+      <c r="B104" s="163" t="s">
         <v>56</v>
       </c>
-      <c r="C104" s="160"/>
+      <c r="C104" s="164"/>
     </row>
     <row r="105" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="161" t="s">
+      <c r="B105" s="165" t="s">
         <v>66</v>
       </c>
-      <c r="C105" s="162"/>
+      <c r="C105" s="166"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B106" s="159" t="s">
-        <v>200</v>
-      </c>
-      <c r="C106" s="160"/>
+      <c r="B106" s="163" t="s">
+        <v>199</v>
+      </c>
+      <c r="C106" s="164"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="C107" s="162"/>
+    </row>
+    <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="169" t="s">
         <v>203</v>
       </c>
-      <c r="C107" s="156"/>
-    </row>
-    <row r="108" spans="2:3" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="157" t="s">
-        <v>204</v>
-      </c>
-      <c r="C108" s="158"/>
+      <c r="C108" s="170"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B102:C102"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="B103:C103"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B106:C106"/>
+    <mergeCell ref="B107:C107"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="B81:C81"/>
@@ -12446,13 +12389,79 @@
     <mergeCell ref="B90:C90"/>
     <mergeCell ref="B91:C91"/>
     <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B102:C102"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="B103:C103"/>
-    <mergeCell ref="B104:C104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B106:C106"/>
-    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
